--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'QA1a (Niah)'!$A$10:$AF$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'QA1b (Niah)'!$A$10:$U$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'QA1b (Niah)'!$A$10:$X$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -380,144 +380,24 @@
     <t>Quality Rating</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">□ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Work is highly satisfactory</t>
-    </r>
-  </si>
-  <si>
     <t>2 Correction/Improvement needed on item no.</t>
   </si>
   <si>
     <t>Signature</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">□ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Work is satisfactory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">□ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Work is unsatisfactory</t>
-    </r>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">   due to :</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  material</t>
-    </r>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  equipment</t>
-    </r>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
     <t>NAME OF PARTY</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">□ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workmanship</t>
-    </r>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -531,13 +411,34 @@
   </si>
   <si>
     <t>(I) REMARKS</t>
+  </si>
+  <si>
+    <t>Work is highly satisfactory</t>
+  </si>
+  <si>
+    <t>Work is satisfactory</t>
+  </si>
+  <si>
+    <t>Work is unsatisfactory</t>
+  </si>
+  <si>
+    <t>due to :</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>workmanship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,11 +580,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -691,11 +587,6 @@
     <font>
       <i/>
       <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1277,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1513,9 +1404,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1546,7 +1434,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
@@ -1562,6 +1450,18 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1769,22 +1669,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,19 +1687,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1820,8 +1711,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1934,625 +1837,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220089</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EF7384-3320-4155-890C-0EDE2385BEF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="2711829"/>
-          <a:ext cx="228600" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>220089</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EEEA1A-66DB-4334-B406-D494E27EFCAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="2925189"/>
-          <a:ext cx="228600" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226B2C96-FFCD-4942-B000-F34C36FC410E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="3169029"/>
-          <a:ext cx="228600" cy="153330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7658</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B065E1-63A6-49FA-86BC-AA854536F1EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="3397629"/>
-          <a:ext cx="228600" cy="153329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3012</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9948CA2-CFD0-46C0-9DB5-267937A24674}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="3621583"/>
-          <a:ext cx="228600" cy="153329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7658</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B34F7FE-ACE8-4321-8436-CAB15A81225C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="3854829"/>
-          <a:ext cx="228600" cy="153329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7292</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B9EC09-D5DE-480D-B549-972C89DEC874}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="4083062"/>
-          <a:ext cx="228600" cy="153330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7192</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8B5CD4-629E-4EF6-8002-773133F2E715}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="4311563"/>
-          <a:ext cx="228600" cy="153329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>73171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75970C7F-FBA5-4AD8-A493-97DA111DC7F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="4530871"/>
-          <a:ext cx="228600" cy="178094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>225571</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFD6661-B303-4ED5-AE91-420966926CF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1657350" y="2498236"/>
-          <a:ext cx="228600" cy="127635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>468866</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>682994</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>225204</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97555834-3597-420C-ACC4-1DE3E06299DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1630916" y="2448295"/>
-          <a:ext cx="214128" cy="177209"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>470141</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>684269</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>208524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC759112-E780-478D-A04F-10AA8E95B948}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1632191" y="3574615"/>
-          <a:ext cx="214128" cy="177209"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>462757</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>58988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>676885</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>7302</xdr:rowOff>
@@ -2607,15 +1898,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>286700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>222567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3073,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:AH50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
@@ -5014,41 +4305,41 @@
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="163" t="str">
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="168" t="str">
         <f>'[1]Form B OLD'!J1</f>
         <v>(Project Name and Package Number)</v>
       </c>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="164"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="169"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="167" t="s">
+      <c r="Z10" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="169" t="s">
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="168"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="173"/>
       <c r="AF10" s="6" t="s">
         <v>3</v>
       </c>
@@ -5059,147 +4350,147 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="165"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
       <c r="Y11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="137"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="142"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
     <row r="12" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="142" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="143"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="148"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="137"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="142"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
     </row>
     <row r="13" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="146"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="142"/>
-      <c r="X13" s="143"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="148"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="137"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="142"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="148"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="145"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="150"/>
       <c r="Y14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="137"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="142"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
     </row>
@@ -5209,41 +4500,41 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="132" t="s">
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="136"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="141"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="132" t="s">
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="151"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="156"/>
       <c r="Y15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="152"/>
-      <c r="AA15" s="152"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="152"/>
-      <c r="AE15" s="153"/>
+      <c r="Z15" s="157"/>
+      <c r="AA15" s="157"/>
+      <c r="AB15" s="158"/>
+      <c r="AC15" s="159"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="158"/>
       <c r="AF15" s="21"/>
     </row>
     <row r="16" spans="2:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -5303,10 +4594,10 @@
       <c r="J17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="128" t="s">
+      <c r="K17" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="129"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
@@ -5340,8 +4631,8 @@
       <c r="J18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="35">
         <v>1</v>
       </c>
@@ -5396,8 +4687,8 @@
       <c r="H19" s="45"/>
       <c r="I19" s="28"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
@@ -5415,7 +4706,7 @@
       <c r="AA19" s="41"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="28"/>
-      <c r="AD19" s="101"/>
+      <c r="AD19" s="100"/>
       <c r="AF19" s="48"/>
     </row>
     <row r="20" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5432,8 +4723,8 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="136"/>
       <c r="M20" s="49">
         <v>2</v>
       </c>
@@ -5469,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="AC20" s="28"/>
-      <c r="AD20" s="100"/>
+      <c r="AD20" s="99"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5486,8 +4777,8 @@
       <c r="H21" s="54"/>
       <c r="I21" s="28"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="131"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
       <c r="M21" s="49"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
@@ -5522,8 +4813,8 @@
       <c r="H22" s="54"/>
       <c r="I22" s="28"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
       <c r="M22" s="35">
         <v>3</v>
       </c>
@@ -5561,7 +4852,7 @@
         <v>33</v>
       </c>
       <c r="AC22" s="28"/>
-      <c r="AD22" s="100"/>
+      <c r="AD22" s="99"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="55"/>
     </row>
@@ -5579,8 +4870,8 @@
       <c r="H23" s="54"/>
       <c r="I23" s="28"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
       <c r="M23" s="35"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
@@ -5649,7 +4940,7 @@
         <v>40</v>
       </c>
       <c r="AC24" s="28"/>
-      <c r="AD24" s="100"/>
+      <c r="AD24" s="99"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5728,7 +5019,7 @@
         <v>33</v>
       </c>
       <c r="AC26" s="28"/>
-      <c r="AD26" s="100"/>
+      <c r="AD26" s="99"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="52"/>
     </row>
@@ -5755,10 +5046,10 @@
     </row>
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="70"/>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="134"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="51"/>
       <c r="F28" s="71" t="s">
         <v>50</v>
@@ -5766,10 +5057,10 @@
       <c r="H28" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="134" t="s">
+      <c r="J28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="134"/>
+      <c r="K28" s="139"/>
       <c r="L28" s="72" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +5099,7 @@
         <v>33</v>
       </c>
       <c r="AC28" s="28"/>
-      <c r="AD28" s="100"/>
+      <c r="AD28" s="99"/>
       <c r="AE28" s="28"/>
       <c r="AF28" s="55"/>
     </row>
@@ -5816,15 +5107,15 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="28"/>
       <c r="F29" s="45"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="73"/>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
@@ -5851,15 +5142,15 @@
       <c r="B30" s="27">
         <v>2</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="28"/>
       <c r="F30" s="45"/>
       <c r="G30" s="28"/>
       <c r="H30" s="53"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="73"/>
       <c r="M30" s="35">
         <v>7</v>
@@ -5896,7 +5187,7 @@
         <v>33</v>
       </c>
       <c r="AC30" s="28"/>
-      <c r="AD30" s="100"/>
+      <c r="AD30" s="99"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="55"/>
     </row>
@@ -5904,15 +5195,15 @@
       <c r="B31" s="27">
         <v>3</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="53"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
       <c r="L31" s="73"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -5929,15 +5220,15 @@
       <c r="B32" s="27">
         <v>4</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
       <c r="E32" s="28"/>
       <c r="F32" s="54"/>
       <c r="G32" s="28"/>
       <c r="H32" s="54"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
       <c r="L32" s="73"/>
       <c r="M32" s="49">
         <v>8</v>
@@ -5975,15 +5266,15 @@
       <c r="B33" s="27">
         <v>5</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="28"/>
       <c r="F33" s="54"/>
       <c r="G33" s="28"/>
       <c r="H33" s="54"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
       <c r="L33" s="73"/>
       <c r="AF33" s="44"/>
     </row>
@@ -5991,15 +5282,15 @@
       <c r="B34" s="27">
         <v>6</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="28"/>
       <c r="F34" s="54"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
       <c r="L34" s="73"/>
       <c r="AF34" s="44"/>
     </row>
@@ -6007,15 +5298,15 @@
       <c r="B35" s="27">
         <v>7</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="28"/>
       <c r="F35" s="54"/>
       <c r="G35" s="28"/>
       <c r="H35" s="54"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
       <c r="L35" s="73"/>
       <c r="M35" s="75"/>
       <c r="N35" s="76"/>
@@ -6041,15 +5332,15 @@
       <c r="B36" s="27">
         <v>8</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="54"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
       <c r="L36" s="73"/>
       <c r="M36" s="31"/>
       <c r="N36" s="70"/>
@@ -6134,12 +5425,12 @@
     </row>
     <row r="40" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27"/>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="128"/>
+      <c r="D40" s="133"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="128" t="s">
+      <c r="F40" s="133" t="s">
         <v>62</v>
       </c>
       <c r="H40" s="28"/>
@@ -6148,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="28"/>
-      <c r="L40" s="129" t="s">
+      <c r="L40" s="134" t="s">
         <v>21</v>
       </c>
       <c r="M40" s="27"/>
@@ -6172,17 +5463,17 @@
     </row>
     <row r="41" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="128"/>
+      <c r="F41" s="133"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="29" t="s">
         <v>63</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="L41" s="129"/>
+      <c r="L41" s="134"/>
       <c r="M41" s="75">
         <v>1</v>
       </c>
@@ -6192,19 +5483,19 @@
       <c r="P41" s="92"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="121"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="126"/>
       <c r="V41" s="93"/>
       <c r="W41" s="93"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="122"/>
-      <c r="Z41" s="122"/>
-      <c r="AA41" s="122"/>
-      <c r="AB41" s="122"/>
-      <c r="AC41" s="122"/>
-      <c r="AD41" s="122"/>
-      <c r="AE41" s="122"/>
+      <c r="X41" s="127"/>
+      <c r="Y41" s="127"/>
+      <c r="Z41" s="127"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
       <c r="AF41" s="44"/>
     </row>
     <row r="42" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6230,22 +5521,22 @@
       <c r="U42" s="28"/>
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="120"/>
-      <c r="AD42" s="120"/>
-      <c r="AE42" s="120"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="125"/>
+      <c r="AA42" s="125"/>
+      <c r="AB42" s="125"/>
+      <c r="AC42" s="125"/>
+      <c r="AD42" s="125"/>
+      <c r="AE42" s="125"/>
       <c r="AF42" s="44"/>
     </row>
     <row r="43" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27">
         <v>1</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -6260,46 +5551,46 @@
       <c r="N43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
       <c r="V43" s="71"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="127"/>
+      <c r="Z43" s="127"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="127"/>
+      <c r="AE43" s="127"/>
       <c r="AF43" s="44"/>
     </row>
     <row r="44" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="70">
         <v>2</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
       <c r="F44" s="54"/>
       <c r="J44" s="31"/>
       <c r="L44" s="55"/>
       <c r="M44" s="94"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="120"/>
-      <c r="AC44" s="120"/>
-      <c r="AD44" s="120"/>
-      <c r="AE44" s="120"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="125"/>
+      <c r="AB44" s="125"/>
+      <c r="AC44" s="125"/>
+      <c r="AD44" s="125"/>
+      <c r="AE44" s="125"/>
       <c r="AF44" s="44"/>
     </row>
     <row r="45" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="70">
         <v>3</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
       <c r="F45" s="28"/>
       <c r="J45" s="31"/>
       <c r="L45" s="95"/>
@@ -6309,46 +5600,46 @@
       <c r="N45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
+      <c r="S45" s="126"/>
+      <c r="T45" s="126"/>
+      <c r="U45" s="126"/>
       <c r="V45" s="71"/>
-      <c r="X45" s="122"/>
-      <c r="Y45" s="122"/>
-      <c r="Z45" s="122"/>
-      <c r="AA45" s="122"/>
-      <c r="AB45" s="122"/>
-      <c r="AC45" s="122"/>
-      <c r="AD45" s="122"/>
-      <c r="AE45" s="122"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
+      <c r="Z45" s="127"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="127"/>
       <c r="AF45" s="44"/>
     </row>
     <row r="46" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27">
         <v>4</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
       <c r="F46" s="54"/>
       <c r="J46" s="31"/>
       <c r="L46" s="55"/>
       <c r="M46" s="94"/>
-      <c r="X46" s="120"/>
-      <c r="Y46" s="120"/>
-      <c r="Z46" s="120"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="120"/>
-      <c r="AC46" s="120"/>
-      <c r="AD46" s="120"/>
-      <c r="AE46" s="120"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="125"/>
+      <c r="AB46" s="125"/>
+      <c r="AC46" s="125"/>
+      <c r="AD46" s="125"/>
+      <c r="AE46" s="125"/>
       <c r="AF46" s="44"/>
     </row>
     <row r="47" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27">
         <v>5</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
       <c r="F47" s="28"/>
       <c r="J47" s="31"/>
       <c r="L47" s="95"/>
@@ -6358,18 +5649,18 @@
       <c r="N47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S47" s="121"/>
-      <c r="T47" s="121"/>
-      <c r="U47" s="121"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="126"/>
+      <c r="U47" s="126"/>
       <c r="V47" s="71"/>
-      <c r="X47" s="122"/>
-      <c r="Y47" s="122"/>
-      <c r="Z47" s="122"/>
-      <c r="AA47" s="122"/>
-      <c r="AB47" s="122"/>
-      <c r="AC47" s="122"/>
-      <c r="AD47" s="122"/>
-      <c r="AE47" s="122"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="127"/>
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="127"/>
+      <c r="AC47" s="127"/>
+      <c r="AD47" s="127"/>
+      <c r="AE47" s="127"/>
       <c r="AF47" s="44"/>
     </row>
     <row r="48" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,14 +5669,14 @@
       <c r="J48" s="31"/>
       <c r="L48" s="44"/>
       <c r="M48" s="94"/>
-      <c r="X48" s="120"/>
-      <c r="Y48" s="120"/>
-      <c r="Z48" s="120"/>
-      <c r="AA48" s="120"/>
-      <c r="AB48" s="120"/>
-      <c r="AC48" s="120"/>
-      <c r="AD48" s="120"/>
-      <c r="AE48" s="120"/>
+      <c r="X48" s="125"/>
+      <c r="Y48" s="125"/>
+      <c r="Z48" s="125"/>
+      <c r="AA48" s="125"/>
+      <c r="AB48" s="125"/>
+      <c r="AC48" s="125"/>
+      <c r="AD48" s="125"/>
+      <c r="AE48" s="125"/>
       <c r="AF48" s="44"/>
     </row>
     <row r="49" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6406,18 +5697,18 @@
       <c r="N49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S49" s="121"/>
-      <c r="T49" s="121"/>
-      <c r="U49" s="121"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="126"/>
+      <c r="U49" s="126"/>
       <c r="V49" s="71"/>
-      <c r="X49" s="122"/>
-      <c r="Y49" s="122"/>
-      <c r="Z49" s="122"/>
-      <c r="AA49" s="122"/>
-      <c r="AB49" s="122"/>
-      <c r="AC49" s="122"/>
-      <c r="AD49" s="122"/>
-      <c r="AE49" s="122"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="127"/>
+      <c r="AB49" s="127"/>
+      <c r="AC49" s="127"/>
+      <c r="AD49" s="127"/>
+      <c r="AE49" s="127"/>
       <c r="AF49" s="44"/>
     </row>
     <row r="50" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6535,10 +5826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:U42"/>
+  <dimension ref="A9:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6546,1019 +5837,1033 @@
     <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="4" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="3.42578125" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="7"/>
-    <col min="10" max="11" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12" max="17" width="9.140625" style="7"/>
-    <col min="18" max="18" width="1.7109375" style="7" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="7"/>
-    <col min="21" max="21" width="3.85546875" style="7" customWidth="1"/>
-    <col min="22" max="31" width="1.7109375" style="7" customWidth="1"/>
-    <col min="32" max="256" width="9.140625" style="7"/>
-    <col min="257" max="257" width="1.7109375" style="7" customWidth="1"/>
-    <col min="258" max="258" width="4" style="7" customWidth="1"/>
-    <col min="259" max="259" width="10.28515625" style="7" customWidth="1"/>
-    <col min="260" max="260" width="12.7109375" style="7" customWidth="1"/>
-    <col min="261" max="261" width="8.140625" style="7" customWidth="1"/>
-    <col min="262" max="262" width="9.140625" style="7"/>
-    <col min="263" max="263" width="3.42578125" style="7" customWidth="1"/>
-    <col min="264" max="265" width="9.140625" style="7"/>
-    <col min="266" max="267" width="3.85546875" style="7" customWidth="1"/>
-    <col min="268" max="273" width="9.140625" style="7"/>
-    <col min="274" max="274" width="1.7109375" style="7" customWidth="1"/>
-    <col min="275" max="276" width="9.140625" style="7"/>
-    <col min="277" max="277" width="3.85546875" style="7" customWidth="1"/>
-    <col min="278" max="287" width="1.7109375" style="7" customWidth="1"/>
-    <col min="288" max="512" width="9.140625" style="7"/>
-    <col min="513" max="513" width="1.7109375" style="7" customWidth="1"/>
-    <col min="514" max="514" width="4" style="7" customWidth="1"/>
-    <col min="515" max="515" width="10.28515625" style="7" customWidth="1"/>
-    <col min="516" max="516" width="12.7109375" style="7" customWidth="1"/>
-    <col min="517" max="517" width="8.140625" style="7" customWidth="1"/>
-    <col min="518" max="518" width="9.140625" style="7"/>
-    <col min="519" max="519" width="3.42578125" style="7" customWidth="1"/>
-    <col min="520" max="521" width="9.140625" style="7"/>
-    <col min="522" max="523" width="3.85546875" style="7" customWidth="1"/>
-    <col min="524" max="529" width="9.140625" style="7"/>
-    <col min="530" max="530" width="1.7109375" style="7" customWidth="1"/>
-    <col min="531" max="532" width="9.140625" style="7"/>
-    <col min="533" max="533" width="3.85546875" style="7" customWidth="1"/>
-    <col min="534" max="543" width="1.7109375" style="7" customWidth="1"/>
-    <col min="544" max="768" width="9.140625" style="7"/>
-    <col min="769" max="769" width="1.7109375" style="7" customWidth="1"/>
-    <col min="770" max="770" width="4" style="7" customWidth="1"/>
-    <col min="771" max="771" width="10.28515625" style="7" customWidth="1"/>
-    <col min="772" max="772" width="12.7109375" style="7" customWidth="1"/>
-    <col min="773" max="773" width="8.140625" style="7" customWidth="1"/>
-    <col min="774" max="774" width="9.140625" style="7"/>
-    <col min="775" max="775" width="3.42578125" style="7" customWidth="1"/>
-    <col min="776" max="777" width="9.140625" style="7"/>
-    <col min="778" max="779" width="3.85546875" style="7" customWidth="1"/>
-    <col min="780" max="785" width="9.140625" style="7"/>
-    <col min="786" max="786" width="1.7109375" style="7" customWidth="1"/>
-    <col min="787" max="788" width="9.140625" style="7"/>
-    <col min="789" max="789" width="3.85546875" style="7" customWidth="1"/>
-    <col min="790" max="799" width="1.7109375" style="7" customWidth="1"/>
-    <col min="800" max="1024" width="9.140625" style="7"/>
-    <col min="1025" max="1025" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="4" style="7" customWidth="1"/>
-    <col min="1027" max="1027" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.7109375" style="7" customWidth="1"/>
-    <col min="1029" max="1029" width="8.140625" style="7" customWidth="1"/>
-    <col min="1030" max="1030" width="9.140625" style="7"/>
-    <col min="1031" max="1031" width="3.42578125" style="7" customWidth="1"/>
-    <col min="1032" max="1033" width="9.140625" style="7"/>
-    <col min="1034" max="1035" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1036" max="1041" width="9.140625" style="7"/>
-    <col min="1042" max="1042" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1043" max="1044" width="9.140625" style="7"/>
-    <col min="1045" max="1045" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1046" max="1055" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1056" max="1280" width="9.140625" style="7"/>
-    <col min="1281" max="1281" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="4" style="7" customWidth="1"/>
-    <col min="1283" max="1283" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.7109375" style="7" customWidth="1"/>
-    <col min="1285" max="1285" width="8.140625" style="7" customWidth="1"/>
-    <col min="1286" max="1286" width="9.140625" style="7"/>
-    <col min="1287" max="1287" width="3.42578125" style="7" customWidth="1"/>
-    <col min="1288" max="1289" width="9.140625" style="7"/>
-    <col min="1290" max="1291" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1292" max="1297" width="9.140625" style="7"/>
-    <col min="1298" max="1298" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1299" max="1300" width="9.140625" style="7"/>
-    <col min="1301" max="1301" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1302" max="1311" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1312" max="1536" width="9.140625" style="7"/>
-    <col min="1537" max="1537" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="4" style="7" customWidth="1"/>
-    <col min="1539" max="1539" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.7109375" style="7" customWidth="1"/>
-    <col min="1541" max="1541" width="8.140625" style="7" customWidth="1"/>
-    <col min="1542" max="1542" width="9.140625" style="7"/>
-    <col min="1543" max="1543" width="3.42578125" style="7" customWidth="1"/>
-    <col min="1544" max="1545" width="9.140625" style="7"/>
-    <col min="1546" max="1547" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1548" max="1553" width="9.140625" style="7"/>
-    <col min="1554" max="1554" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1555" max="1556" width="9.140625" style="7"/>
-    <col min="1557" max="1557" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1558" max="1567" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1568" max="1792" width="9.140625" style="7"/>
-    <col min="1793" max="1793" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="4" style="7" customWidth="1"/>
-    <col min="1795" max="1795" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.7109375" style="7" customWidth="1"/>
-    <col min="1797" max="1797" width="8.140625" style="7" customWidth="1"/>
-    <col min="1798" max="1798" width="9.140625" style="7"/>
-    <col min="1799" max="1799" width="3.42578125" style="7" customWidth="1"/>
-    <col min="1800" max="1801" width="9.140625" style="7"/>
-    <col min="1802" max="1803" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1804" max="1809" width="9.140625" style="7"/>
-    <col min="1810" max="1810" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1811" max="1812" width="9.140625" style="7"/>
-    <col min="1813" max="1813" width="3.85546875" style="7" customWidth="1"/>
-    <col min="1814" max="1823" width="1.7109375" style="7" customWidth="1"/>
-    <col min="1824" max="2048" width="9.140625" style="7"/>
-    <col min="2049" max="2049" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="4" style="7" customWidth="1"/>
-    <col min="2051" max="2051" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.7109375" style="7" customWidth="1"/>
-    <col min="2053" max="2053" width="8.140625" style="7" customWidth="1"/>
-    <col min="2054" max="2054" width="9.140625" style="7"/>
-    <col min="2055" max="2055" width="3.42578125" style="7" customWidth="1"/>
-    <col min="2056" max="2057" width="9.140625" style="7"/>
-    <col min="2058" max="2059" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2060" max="2065" width="9.140625" style="7"/>
-    <col min="2066" max="2066" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2067" max="2068" width="9.140625" style="7"/>
-    <col min="2069" max="2069" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2070" max="2079" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2080" max="2304" width="9.140625" style="7"/>
-    <col min="2305" max="2305" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="4" style="7" customWidth="1"/>
-    <col min="2307" max="2307" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.7109375" style="7" customWidth="1"/>
-    <col min="2309" max="2309" width="8.140625" style="7" customWidth="1"/>
-    <col min="2310" max="2310" width="9.140625" style="7"/>
-    <col min="2311" max="2311" width="3.42578125" style="7" customWidth="1"/>
-    <col min="2312" max="2313" width="9.140625" style="7"/>
-    <col min="2314" max="2315" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2316" max="2321" width="9.140625" style="7"/>
-    <col min="2322" max="2322" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2323" max="2324" width="9.140625" style="7"/>
-    <col min="2325" max="2325" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2326" max="2335" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2336" max="2560" width="9.140625" style="7"/>
-    <col min="2561" max="2561" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="4" style="7" customWidth="1"/>
-    <col min="2563" max="2563" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.7109375" style="7" customWidth="1"/>
-    <col min="2565" max="2565" width="8.140625" style="7" customWidth="1"/>
-    <col min="2566" max="2566" width="9.140625" style="7"/>
-    <col min="2567" max="2567" width="3.42578125" style="7" customWidth="1"/>
-    <col min="2568" max="2569" width="9.140625" style="7"/>
-    <col min="2570" max="2571" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2572" max="2577" width="9.140625" style="7"/>
-    <col min="2578" max="2578" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2579" max="2580" width="9.140625" style="7"/>
-    <col min="2581" max="2581" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2582" max="2591" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2592" max="2816" width="9.140625" style="7"/>
-    <col min="2817" max="2817" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="4" style="7" customWidth="1"/>
-    <col min="2819" max="2819" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.7109375" style="7" customWidth="1"/>
-    <col min="2821" max="2821" width="8.140625" style="7" customWidth="1"/>
-    <col min="2822" max="2822" width="9.140625" style="7"/>
-    <col min="2823" max="2823" width="3.42578125" style="7" customWidth="1"/>
-    <col min="2824" max="2825" width="9.140625" style="7"/>
-    <col min="2826" max="2827" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2828" max="2833" width="9.140625" style="7"/>
-    <col min="2834" max="2834" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2835" max="2836" width="9.140625" style="7"/>
-    <col min="2837" max="2837" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2838" max="2847" width="1.7109375" style="7" customWidth="1"/>
-    <col min="2848" max="3072" width="9.140625" style="7"/>
-    <col min="3073" max="3073" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="4" style="7" customWidth="1"/>
-    <col min="3075" max="3075" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3077" max="3077" width="8.140625" style="7" customWidth="1"/>
-    <col min="3078" max="3078" width="9.140625" style="7"/>
-    <col min="3079" max="3079" width="3.42578125" style="7" customWidth="1"/>
-    <col min="3080" max="3081" width="9.140625" style="7"/>
-    <col min="3082" max="3083" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3084" max="3089" width="9.140625" style="7"/>
-    <col min="3090" max="3090" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3091" max="3092" width="9.140625" style="7"/>
-    <col min="3093" max="3093" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3094" max="3103" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3104" max="3328" width="9.140625" style="7"/>
-    <col min="3329" max="3329" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="4" style="7" customWidth="1"/>
-    <col min="3331" max="3331" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3333" max="3333" width="8.140625" style="7" customWidth="1"/>
-    <col min="3334" max="3334" width="9.140625" style="7"/>
-    <col min="3335" max="3335" width="3.42578125" style="7" customWidth="1"/>
-    <col min="3336" max="3337" width="9.140625" style="7"/>
-    <col min="3338" max="3339" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3340" max="3345" width="9.140625" style="7"/>
-    <col min="3346" max="3346" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3347" max="3348" width="9.140625" style="7"/>
-    <col min="3349" max="3349" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3350" max="3359" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3360" max="3584" width="9.140625" style="7"/>
-    <col min="3585" max="3585" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="4" style="7" customWidth="1"/>
-    <col min="3587" max="3587" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3589" max="3589" width="8.140625" style="7" customWidth="1"/>
-    <col min="3590" max="3590" width="9.140625" style="7"/>
-    <col min="3591" max="3591" width="3.42578125" style="7" customWidth="1"/>
-    <col min="3592" max="3593" width="9.140625" style="7"/>
-    <col min="3594" max="3595" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3596" max="3601" width="9.140625" style="7"/>
-    <col min="3602" max="3602" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3603" max="3604" width="9.140625" style="7"/>
-    <col min="3605" max="3605" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3606" max="3615" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3616" max="3840" width="9.140625" style="7"/>
-    <col min="3841" max="3841" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="4" style="7" customWidth="1"/>
-    <col min="3843" max="3843" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3845" max="3845" width="8.140625" style="7" customWidth="1"/>
-    <col min="3846" max="3846" width="9.140625" style="7"/>
-    <col min="3847" max="3847" width="3.42578125" style="7" customWidth="1"/>
-    <col min="3848" max="3849" width="9.140625" style="7"/>
-    <col min="3850" max="3851" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3852" max="3857" width="9.140625" style="7"/>
-    <col min="3858" max="3858" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3859" max="3860" width="9.140625" style="7"/>
-    <col min="3861" max="3861" width="3.85546875" style="7" customWidth="1"/>
-    <col min="3862" max="3871" width="1.7109375" style="7" customWidth="1"/>
-    <col min="3872" max="4096" width="9.140625" style="7"/>
-    <col min="4097" max="4097" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="4" style="7" customWidth="1"/>
-    <col min="4099" max="4099" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.7109375" style="7" customWidth="1"/>
-    <col min="4101" max="4101" width="8.140625" style="7" customWidth="1"/>
-    <col min="4102" max="4102" width="9.140625" style="7"/>
-    <col min="4103" max="4103" width="3.42578125" style="7" customWidth="1"/>
-    <col min="4104" max="4105" width="9.140625" style="7"/>
-    <col min="4106" max="4107" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4108" max="4113" width="9.140625" style="7"/>
-    <col min="4114" max="4114" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4115" max="4116" width="9.140625" style="7"/>
-    <col min="4117" max="4117" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4118" max="4127" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4128" max="4352" width="9.140625" style="7"/>
-    <col min="4353" max="4353" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="4" style="7" customWidth="1"/>
-    <col min="4355" max="4355" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.7109375" style="7" customWidth="1"/>
-    <col min="4357" max="4357" width="8.140625" style="7" customWidth="1"/>
-    <col min="4358" max="4358" width="9.140625" style="7"/>
-    <col min="4359" max="4359" width="3.42578125" style="7" customWidth="1"/>
-    <col min="4360" max="4361" width="9.140625" style="7"/>
-    <col min="4362" max="4363" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4364" max="4369" width="9.140625" style="7"/>
-    <col min="4370" max="4370" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4371" max="4372" width="9.140625" style="7"/>
-    <col min="4373" max="4373" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4374" max="4383" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4384" max="4608" width="9.140625" style="7"/>
-    <col min="4609" max="4609" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="4" style="7" customWidth="1"/>
-    <col min="4611" max="4611" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.7109375" style="7" customWidth="1"/>
-    <col min="4613" max="4613" width="8.140625" style="7" customWidth="1"/>
-    <col min="4614" max="4614" width="9.140625" style="7"/>
-    <col min="4615" max="4615" width="3.42578125" style="7" customWidth="1"/>
-    <col min="4616" max="4617" width="9.140625" style="7"/>
-    <col min="4618" max="4619" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4620" max="4625" width="9.140625" style="7"/>
-    <col min="4626" max="4626" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4627" max="4628" width="9.140625" style="7"/>
-    <col min="4629" max="4629" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4630" max="4639" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4640" max="4864" width="9.140625" style="7"/>
-    <col min="4865" max="4865" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="4" style="7" customWidth="1"/>
-    <col min="4867" max="4867" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.7109375" style="7" customWidth="1"/>
-    <col min="4869" max="4869" width="8.140625" style="7" customWidth="1"/>
-    <col min="4870" max="4870" width="9.140625" style="7"/>
-    <col min="4871" max="4871" width="3.42578125" style="7" customWidth="1"/>
-    <col min="4872" max="4873" width="9.140625" style="7"/>
-    <col min="4874" max="4875" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4876" max="4881" width="9.140625" style="7"/>
-    <col min="4882" max="4882" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4883" max="4884" width="9.140625" style="7"/>
-    <col min="4885" max="4885" width="3.85546875" style="7" customWidth="1"/>
-    <col min="4886" max="4895" width="1.7109375" style="7" customWidth="1"/>
-    <col min="4896" max="5120" width="9.140625" style="7"/>
-    <col min="5121" max="5121" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="4" style="7" customWidth="1"/>
-    <col min="5123" max="5123" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5125" max="5125" width="8.140625" style="7" customWidth="1"/>
-    <col min="5126" max="5126" width="9.140625" style="7"/>
-    <col min="5127" max="5127" width="3.42578125" style="7" customWidth="1"/>
-    <col min="5128" max="5129" width="9.140625" style="7"/>
-    <col min="5130" max="5131" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5132" max="5137" width="9.140625" style="7"/>
-    <col min="5138" max="5138" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5139" max="5140" width="9.140625" style="7"/>
-    <col min="5141" max="5141" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5142" max="5151" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5152" max="5376" width="9.140625" style="7"/>
-    <col min="5377" max="5377" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="4" style="7" customWidth="1"/>
-    <col min="5379" max="5379" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5381" max="5381" width="8.140625" style="7" customWidth="1"/>
-    <col min="5382" max="5382" width="9.140625" style="7"/>
-    <col min="5383" max="5383" width="3.42578125" style="7" customWidth="1"/>
-    <col min="5384" max="5385" width="9.140625" style="7"/>
-    <col min="5386" max="5387" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5388" max="5393" width="9.140625" style="7"/>
-    <col min="5394" max="5394" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5395" max="5396" width="9.140625" style="7"/>
-    <col min="5397" max="5397" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5398" max="5407" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5408" max="5632" width="9.140625" style="7"/>
-    <col min="5633" max="5633" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="4" style="7" customWidth="1"/>
-    <col min="5635" max="5635" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5637" max="5637" width="8.140625" style="7" customWidth="1"/>
-    <col min="5638" max="5638" width="9.140625" style="7"/>
-    <col min="5639" max="5639" width="3.42578125" style="7" customWidth="1"/>
-    <col min="5640" max="5641" width="9.140625" style="7"/>
-    <col min="5642" max="5643" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5644" max="5649" width="9.140625" style="7"/>
-    <col min="5650" max="5650" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5651" max="5652" width="9.140625" style="7"/>
-    <col min="5653" max="5653" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5654" max="5663" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5664" max="5888" width="9.140625" style="7"/>
-    <col min="5889" max="5889" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="4" style="7" customWidth="1"/>
-    <col min="5891" max="5891" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5893" max="5893" width="8.140625" style="7" customWidth="1"/>
-    <col min="5894" max="5894" width="9.140625" style="7"/>
-    <col min="5895" max="5895" width="3.42578125" style="7" customWidth="1"/>
-    <col min="5896" max="5897" width="9.140625" style="7"/>
-    <col min="5898" max="5899" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5900" max="5905" width="9.140625" style="7"/>
-    <col min="5906" max="5906" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5907" max="5908" width="9.140625" style="7"/>
-    <col min="5909" max="5909" width="3.85546875" style="7" customWidth="1"/>
-    <col min="5910" max="5919" width="1.7109375" style="7" customWidth="1"/>
-    <col min="5920" max="6144" width="9.140625" style="7"/>
-    <col min="6145" max="6145" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="4" style="7" customWidth="1"/>
-    <col min="6147" max="6147" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6149" max="6149" width="8.140625" style="7" customWidth="1"/>
-    <col min="6150" max="6150" width="9.140625" style="7"/>
-    <col min="6151" max="6151" width="3.42578125" style="7" customWidth="1"/>
-    <col min="6152" max="6153" width="9.140625" style="7"/>
-    <col min="6154" max="6155" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6156" max="6161" width="9.140625" style="7"/>
-    <col min="6162" max="6162" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6163" max="6164" width="9.140625" style="7"/>
-    <col min="6165" max="6165" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6166" max="6175" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6176" max="6400" width="9.140625" style="7"/>
-    <col min="6401" max="6401" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="4" style="7" customWidth="1"/>
-    <col min="6403" max="6403" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6405" max="6405" width="8.140625" style="7" customWidth="1"/>
-    <col min="6406" max="6406" width="9.140625" style="7"/>
-    <col min="6407" max="6407" width="3.42578125" style="7" customWidth="1"/>
-    <col min="6408" max="6409" width="9.140625" style="7"/>
-    <col min="6410" max="6411" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6412" max="6417" width="9.140625" style="7"/>
-    <col min="6418" max="6418" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6419" max="6420" width="9.140625" style="7"/>
-    <col min="6421" max="6421" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6422" max="6431" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6432" max="6656" width="9.140625" style="7"/>
-    <col min="6657" max="6657" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="4" style="7" customWidth="1"/>
-    <col min="6659" max="6659" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6661" max="6661" width="8.140625" style="7" customWidth="1"/>
-    <col min="6662" max="6662" width="9.140625" style="7"/>
-    <col min="6663" max="6663" width="3.42578125" style="7" customWidth="1"/>
-    <col min="6664" max="6665" width="9.140625" style="7"/>
-    <col min="6666" max="6667" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6668" max="6673" width="9.140625" style="7"/>
-    <col min="6674" max="6674" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6675" max="6676" width="9.140625" style="7"/>
-    <col min="6677" max="6677" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6678" max="6687" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6688" max="6912" width="9.140625" style="7"/>
-    <col min="6913" max="6913" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="4" style="7" customWidth="1"/>
-    <col min="6915" max="6915" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6917" max="6917" width="8.140625" style="7" customWidth="1"/>
-    <col min="6918" max="6918" width="9.140625" style="7"/>
-    <col min="6919" max="6919" width="3.42578125" style="7" customWidth="1"/>
-    <col min="6920" max="6921" width="9.140625" style="7"/>
-    <col min="6922" max="6923" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6924" max="6929" width="9.140625" style="7"/>
-    <col min="6930" max="6930" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6931" max="6932" width="9.140625" style="7"/>
-    <col min="6933" max="6933" width="3.85546875" style="7" customWidth="1"/>
-    <col min="6934" max="6943" width="1.7109375" style="7" customWidth="1"/>
-    <col min="6944" max="7168" width="9.140625" style="7"/>
-    <col min="7169" max="7169" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="4" style="7" customWidth="1"/>
-    <col min="7171" max="7171" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7173" max="7173" width="8.140625" style="7" customWidth="1"/>
-    <col min="7174" max="7174" width="9.140625" style="7"/>
-    <col min="7175" max="7175" width="3.42578125" style="7" customWidth="1"/>
-    <col min="7176" max="7177" width="9.140625" style="7"/>
-    <col min="7178" max="7179" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7180" max="7185" width="9.140625" style="7"/>
-    <col min="7186" max="7186" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7187" max="7188" width="9.140625" style="7"/>
-    <col min="7189" max="7189" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7190" max="7199" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7200" max="7424" width="9.140625" style="7"/>
-    <col min="7425" max="7425" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="4" style="7" customWidth="1"/>
-    <col min="7427" max="7427" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7429" max="7429" width="8.140625" style="7" customWidth="1"/>
-    <col min="7430" max="7430" width="9.140625" style="7"/>
-    <col min="7431" max="7431" width="3.42578125" style="7" customWidth="1"/>
-    <col min="7432" max="7433" width="9.140625" style="7"/>
-    <col min="7434" max="7435" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7436" max="7441" width="9.140625" style="7"/>
-    <col min="7442" max="7442" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7443" max="7444" width="9.140625" style="7"/>
-    <col min="7445" max="7445" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7446" max="7455" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7456" max="7680" width="9.140625" style="7"/>
-    <col min="7681" max="7681" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="4" style="7" customWidth="1"/>
-    <col min="7683" max="7683" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7685" max="7685" width="8.140625" style="7" customWidth="1"/>
-    <col min="7686" max="7686" width="9.140625" style="7"/>
-    <col min="7687" max="7687" width="3.42578125" style="7" customWidth="1"/>
-    <col min="7688" max="7689" width="9.140625" style="7"/>
-    <col min="7690" max="7691" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7692" max="7697" width="9.140625" style="7"/>
-    <col min="7698" max="7698" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7699" max="7700" width="9.140625" style="7"/>
-    <col min="7701" max="7701" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7702" max="7711" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7712" max="7936" width="9.140625" style="7"/>
-    <col min="7937" max="7937" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="4" style="7" customWidth="1"/>
-    <col min="7939" max="7939" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7941" max="7941" width="8.140625" style="7" customWidth="1"/>
-    <col min="7942" max="7942" width="9.140625" style="7"/>
-    <col min="7943" max="7943" width="3.42578125" style="7" customWidth="1"/>
-    <col min="7944" max="7945" width="9.140625" style="7"/>
-    <col min="7946" max="7947" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7948" max="7953" width="9.140625" style="7"/>
-    <col min="7954" max="7954" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7955" max="7956" width="9.140625" style="7"/>
-    <col min="7957" max="7957" width="3.85546875" style="7" customWidth="1"/>
-    <col min="7958" max="7967" width="1.7109375" style="7" customWidth="1"/>
-    <col min="7968" max="8192" width="9.140625" style="7"/>
-    <col min="8193" max="8193" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="4" style="7" customWidth="1"/>
-    <col min="8195" max="8195" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8197" max="8197" width="8.140625" style="7" customWidth="1"/>
-    <col min="8198" max="8198" width="9.140625" style="7"/>
-    <col min="8199" max="8199" width="3.42578125" style="7" customWidth="1"/>
-    <col min="8200" max="8201" width="9.140625" style="7"/>
-    <col min="8202" max="8203" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8204" max="8209" width="9.140625" style="7"/>
-    <col min="8210" max="8210" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8211" max="8212" width="9.140625" style="7"/>
-    <col min="8213" max="8213" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8214" max="8223" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8224" max="8448" width="9.140625" style="7"/>
-    <col min="8449" max="8449" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="4" style="7" customWidth="1"/>
-    <col min="8451" max="8451" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8453" max="8453" width="8.140625" style="7" customWidth="1"/>
-    <col min="8454" max="8454" width="9.140625" style="7"/>
-    <col min="8455" max="8455" width="3.42578125" style="7" customWidth="1"/>
-    <col min="8456" max="8457" width="9.140625" style="7"/>
-    <col min="8458" max="8459" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8460" max="8465" width="9.140625" style="7"/>
-    <col min="8466" max="8466" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8467" max="8468" width="9.140625" style="7"/>
-    <col min="8469" max="8469" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8470" max="8479" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8480" max="8704" width="9.140625" style="7"/>
-    <col min="8705" max="8705" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="4" style="7" customWidth="1"/>
-    <col min="8707" max="8707" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8709" max="8709" width="8.140625" style="7" customWidth="1"/>
-    <col min="8710" max="8710" width="9.140625" style="7"/>
-    <col min="8711" max="8711" width="3.42578125" style="7" customWidth="1"/>
-    <col min="8712" max="8713" width="9.140625" style="7"/>
-    <col min="8714" max="8715" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8716" max="8721" width="9.140625" style="7"/>
-    <col min="8722" max="8722" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8723" max="8724" width="9.140625" style="7"/>
-    <col min="8725" max="8725" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8726" max="8735" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8736" max="8960" width="9.140625" style="7"/>
-    <col min="8961" max="8961" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="4" style="7" customWidth="1"/>
-    <col min="8963" max="8963" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8965" max="8965" width="8.140625" style="7" customWidth="1"/>
-    <col min="8966" max="8966" width="9.140625" style="7"/>
-    <col min="8967" max="8967" width="3.42578125" style="7" customWidth="1"/>
-    <col min="8968" max="8969" width="9.140625" style="7"/>
-    <col min="8970" max="8971" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8972" max="8977" width="9.140625" style="7"/>
-    <col min="8978" max="8978" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8979" max="8980" width="9.140625" style="7"/>
-    <col min="8981" max="8981" width="3.85546875" style="7" customWidth="1"/>
-    <col min="8982" max="8991" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8992" max="9216" width="9.140625" style="7"/>
-    <col min="9217" max="9217" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="4" style="7" customWidth="1"/>
-    <col min="9219" max="9219" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9221" max="9221" width="8.140625" style="7" customWidth="1"/>
-    <col min="9222" max="9222" width="9.140625" style="7"/>
-    <col min="9223" max="9223" width="3.42578125" style="7" customWidth="1"/>
-    <col min="9224" max="9225" width="9.140625" style="7"/>
-    <col min="9226" max="9227" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9228" max="9233" width="9.140625" style="7"/>
-    <col min="9234" max="9234" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9235" max="9236" width="9.140625" style="7"/>
-    <col min="9237" max="9237" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9238" max="9247" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9248" max="9472" width="9.140625" style="7"/>
-    <col min="9473" max="9473" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="4" style="7" customWidth="1"/>
-    <col min="9475" max="9475" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9477" max="9477" width="8.140625" style="7" customWidth="1"/>
-    <col min="9478" max="9478" width="9.140625" style="7"/>
-    <col min="9479" max="9479" width="3.42578125" style="7" customWidth="1"/>
-    <col min="9480" max="9481" width="9.140625" style="7"/>
-    <col min="9482" max="9483" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9484" max="9489" width="9.140625" style="7"/>
-    <col min="9490" max="9490" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9491" max="9492" width="9.140625" style="7"/>
-    <col min="9493" max="9493" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9494" max="9503" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9504" max="9728" width="9.140625" style="7"/>
-    <col min="9729" max="9729" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="4" style="7" customWidth="1"/>
-    <col min="9731" max="9731" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9733" max="9733" width="8.140625" style="7" customWidth="1"/>
-    <col min="9734" max="9734" width="9.140625" style="7"/>
-    <col min="9735" max="9735" width="3.42578125" style="7" customWidth="1"/>
-    <col min="9736" max="9737" width="9.140625" style="7"/>
-    <col min="9738" max="9739" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9740" max="9745" width="9.140625" style="7"/>
-    <col min="9746" max="9746" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9747" max="9748" width="9.140625" style="7"/>
-    <col min="9749" max="9749" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9750" max="9759" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9760" max="9984" width="9.140625" style="7"/>
-    <col min="9985" max="9985" width="1.7109375" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="4" style="7" customWidth="1"/>
-    <col min="9987" max="9987" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9989" max="9989" width="8.140625" style="7" customWidth="1"/>
-    <col min="9990" max="9990" width="9.140625" style="7"/>
-    <col min="9991" max="9991" width="3.42578125" style="7" customWidth="1"/>
-    <col min="9992" max="9993" width="9.140625" style="7"/>
-    <col min="9994" max="9995" width="3.85546875" style="7" customWidth="1"/>
-    <col min="9996" max="10001" width="9.140625" style="7"/>
-    <col min="10002" max="10002" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10003" max="10004" width="9.140625" style="7"/>
-    <col min="10005" max="10005" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10006" max="10015" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10016" max="10240" width="9.140625" style="7"/>
-    <col min="10241" max="10241" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="4" style="7" customWidth="1"/>
-    <col min="10243" max="10243" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.7109375" style="7" customWidth="1"/>
-    <col min="10245" max="10245" width="8.140625" style="7" customWidth="1"/>
-    <col min="10246" max="10246" width="9.140625" style="7"/>
-    <col min="10247" max="10247" width="3.42578125" style="7" customWidth="1"/>
-    <col min="10248" max="10249" width="9.140625" style="7"/>
-    <col min="10250" max="10251" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10252" max="10257" width="9.140625" style="7"/>
-    <col min="10258" max="10258" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10259" max="10260" width="9.140625" style="7"/>
-    <col min="10261" max="10261" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10262" max="10271" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10272" max="10496" width="9.140625" style="7"/>
-    <col min="10497" max="10497" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="4" style="7" customWidth="1"/>
-    <col min="10499" max="10499" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.7109375" style="7" customWidth="1"/>
-    <col min="10501" max="10501" width="8.140625" style="7" customWidth="1"/>
-    <col min="10502" max="10502" width="9.140625" style="7"/>
-    <col min="10503" max="10503" width="3.42578125" style="7" customWidth="1"/>
-    <col min="10504" max="10505" width="9.140625" style="7"/>
-    <col min="10506" max="10507" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10508" max="10513" width="9.140625" style="7"/>
-    <col min="10514" max="10514" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10515" max="10516" width="9.140625" style="7"/>
-    <col min="10517" max="10517" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10518" max="10527" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10528" max="10752" width="9.140625" style="7"/>
-    <col min="10753" max="10753" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="4" style="7" customWidth="1"/>
-    <col min="10755" max="10755" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.7109375" style="7" customWidth="1"/>
-    <col min="10757" max="10757" width="8.140625" style="7" customWidth="1"/>
-    <col min="10758" max="10758" width="9.140625" style="7"/>
-    <col min="10759" max="10759" width="3.42578125" style="7" customWidth="1"/>
-    <col min="10760" max="10761" width="9.140625" style="7"/>
-    <col min="10762" max="10763" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10764" max="10769" width="9.140625" style="7"/>
-    <col min="10770" max="10770" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10771" max="10772" width="9.140625" style="7"/>
-    <col min="10773" max="10773" width="3.85546875" style="7" customWidth="1"/>
-    <col min="10774" max="10783" width="1.7109375" style="7" customWidth="1"/>
-    <col min="10784" max="11008" width="9.140625" style="7"/>
-    <col min="11009" max="11009" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="4" style="7" customWidth="1"/>
-    <col min="11011" max="11011" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.7109375" style="7" customWidth="1"/>
-    <col min="11013" max="11013" width="8.140625" style="7" customWidth="1"/>
-    <col min="11014" max="11014" width="9.140625" style="7"/>
-    <col min="11015" max="11015" width="3.42578125" style="7" customWidth="1"/>
-    <col min="11016" max="11017" width="9.140625" style="7"/>
-    <col min="11018" max="11019" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11020" max="11025" width="9.140625" style="7"/>
-    <col min="11026" max="11026" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11027" max="11028" width="9.140625" style="7"/>
-    <col min="11029" max="11029" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11030" max="11039" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11040" max="11264" width="9.140625" style="7"/>
-    <col min="11265" max="11265" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="4" style="7" customWidth="1"/>
-    <col min="11267" max="11267" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.7109375" style="7" customWidth="1"/>
-    <col min="11269" max="11269" width="8.140625" style="7" customWidth="1"/>
-    <col min="11270" max="11270" width="9.140625" style="7"/>
-    <col min="11271" max="11271" width="3.42578125" style="7" customWidth="1"/>
-    <col min="11272" max="11273" width="9.140625" style="7"/>
-    <col min="11274" max="11275" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11276" max="11281" width="9.140625" style="7"/>
-    <col min="11282" max="11282" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11283" max="11284" width="9.140625" style="7"/>
-    <col min="11285" max="11285" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11286" max="11295" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11296" max="11520" width="9.140625" style="7"/>
-    <col min="11521" max="11521" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="4" style="7" customWidth="1"/>
-    <col min="11523" max="11523" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.7109375" style="7" customWidth="1"/>
-    <col min="11525" max="11525" width="8.140625" style="7" customWidth="1"/>
-    <col min="11526" max="11526" width="9.140625" style="7"/>
-    <col min="11527" max="11527" width="3.42578125" style="7" customWidth="1"/>
-    <col min="11528" max="11529" width="9.140625" style="7"/>
-    <col min="11530" max="11531" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11532" max="11537" width="9.140625" style="7"/>
-    <col min="11538" max="11538" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11539" max="11540" width="9.140625" style="7"/>
-    <col min="11541" max="11541" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11542" max="11551" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11552" max="11776" width="9.140625" style="7"/>
-    <col min="11777" max="11777" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="4" style="7" customWidth="1"/>
-    <col min="11779" max="11779" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.7109375" style="7" customWidth="1"/>
-    <col min="11781" max="11781" width="8.140625" style="7" customWidth="1"/>
-    <col min="11782" max="11782" width="9.140625" style="7"/>
-    <col min="11783" max="11783" width="3.42578125" style="7" customWidth="1"/>
-    <col min="11784" max="11785" width="9.140625" style="7"/>
-    <col min="11786" max="11787" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11788" max="11793" width="9.140625" style="7"/>
-    <col min="11794" max="11794" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11795" max="11796" width="9.140625" style="7"/>
-    <col min="11797" max="11797" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11798" max="11807" width="1.7109375" style="7" customWidth="1"/>
-    <col min="11808" max="12032" width="9.140625" style="7"/>
-    <col min="12033" max="12033" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="4" style="7" customWidth="1"/>
-    <col min="12035" max="12035" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.7109375" style="7" customWidth="1"/>
-    <col min="12037" max="12037" width="8.140625" style="7" customWidth="1"/>
-    <col min="12038" max="12038" width="9.140625" style="7"/>
-    <col min="12039" max="12039" width="3.42578125" style="7" customWidth="1"/>
-    <col min="12040" max="12041" width="9.140625" style="7"/>
-    <col min="12042" max="12043" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12044" max="12049" width="9.140625" style="7"/>
-    <col min="12050" max="12050" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12051" max="12052" width="9.140625" style="7"/>
-    <col min="12053" max="12053" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12054" max="12063" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12064" max="12288" width="9.140625" style="7"/>
-    <col min="12289" max="12289" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="4" style="7" customWidth="1"/>
-    <col min="12291" max="12291" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.7109375" style="7" customWidth="1"/>
-    <col min="12293" max="12293" width="8.140625" style="7" customWidth="1"/>
-    <col min="12294" max="12294" width="9.140625" style="7"/>
-    <col min="12295" max="12295" width="3.42578125" style="7" customWidth="1"/>
-    <col min="12296" max="12297" width="9.140625" style="7"/>
-    <col min="12298" max="12299" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12300" max="12305" width="9.140625" style="7"/>
-    <col min="12306" max="12306" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12307" max="12308" width="9.140625" style="7"/>
-    <col min="12309" max="12309" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12310" max="12319" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12320" max="12544" width="9.140625" style="7"/>
-    <col min="12545" max="12545" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="4" style="7" customWidth="1"/>
-    <col min="12547" max="12547" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.7109375" style="7" customWidth="1"/>
-    <col min="12549" max="12549" width="8.140625" style="7" customWidth="1"/>
-    <col min="12550" max="12550" width="9.140625" style="7"/>
-    <col min="12551" max="12551" width="3.42578125" style="7" customWidth="1"/>
-    <col min="12552" max="12553" width="9.140625" style="7"/>
-    <col min="12554" max="12555" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12556" max="12561" width="9.140625" style="7"/>
-    <col min="12562" max="12562" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12563" max="12564" width="9.140625" style="7"/>
-    <col min="12565" max="12565" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12566" max="12575" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12576" max="12800" width="9.140625" style="7"/>
-    <col min="12801" max="12801" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="4" style="7" customWidth="1"/>
-    <col min="12803" max="12803" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.7109375" style="7" customWidth="1"/>
-    <col min="12805" max="12805" width="8.140625" style="7" customWidth="1"/>
-    <col min="12806" max="12806" width="9.140625" style="7"/>
-    <col min="12807" max="12807" width="3.42578125" style="7" customWidth="1"/>
-    <col min="12808" max="12809" width="9.140625" style="7"/>
-    <col min="12810" max="12811" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12812" max="12817" width="9.140625" style="7"/>
-    <col min="12818" max="12818" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12819" max="12820" width="9.140625" style="7"/>
-    <col min="12821" max="12821" width="3.85546875" style="7" customWidth="1"/>
-    <col min="12822" max="12831" width="1.7109375" style="7" customWidth="1"/>
-    <col min="12832" max="13056" width="9.140625" style="7"/>
-    <col min="13057" max="13057" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="4" style="7" customWidth="1"/>
-    <col min="13059" max="13059" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13061" max="13061" width="8.140625" style="7" customWidth="1"/>
-    <col min="13062" max="13062" width="9.140625" style="7"/>
-    <col min="13063" max="13063" width="3.42578125" style="7" customWidth="1"/>
-    <col min="13064" max="13065" width="9.140625" style="7"/>
-    <col min="13066" max="13067" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13068" max="13073" width="9.140625" style="7"/>
-    <col min="13074" max="13074" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13075" max="13076" width="9.140625" style="7"/>
-    <col min="13077" max="13077" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13078" max="13087" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13088" max="13312" width="9.140625" style="7"/>
-    <col min="13313" max="13313" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="4" style="7" customWidth="1"/>
-    <col min="13315" max="13315" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13317" max="13317" width="8.140625" style="7" customWidth="1"/>
-    <col min="13318" max="13318" width="9.140625" style="7"/>
-    <col min="13319" max="13319" width="3.42578125" style="7" customWidth="1"/>
-    <col min="13320" max="13321" width="9.140625" style="7"/>
-    <col min="13322" max="13323" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13324" max="13329" width="9.140625" style="7"/>
-    <col min="13330" max="13330" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13331" max="13332" width="9.140625" style="7"/>
-    <col min="13333" max="13333" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13334" max="13343" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13344" max="13568" width="9.140625" style="7"/>
-    <col min="13569" max="13569" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="4" style="7" customWidth="1"/>
-    <col min="13571" max="13571" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13573" max="13573" width="8.140625" style="7" customWidth="1"/>
-    <col min="13574" max="13574" width="9.140625" style="7"/>
-    <col min="13575" max="13575" width="3.42578125" style="7" customWidth="1"/>
-    <col min="13576" max="13577" width="9.140625" style="7"/>
-    <col min="13578" max="13579" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13580" max="13585" width="9.140625" style="7"/>
-    <col min="13586" max="13586" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13587" max="13588" width="9.140625" style="7"/>
-    <col min="13589" max="13589" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13590" max="13599" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13600" max="13824" width="9.140625" style="7"/>
-    <col min="13825" max="13825" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="4" style="7" customWidth="1"/>
-    <col min="13827" max="13827" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13829" max="13829" width="8.140625" style="7" customWidth="1"/>
-    <col min="13830" max="13830" width="9.140625" style="7"/>
-    <col min="13831" max="13831" width="3.42578125" style="7" customWidth="1"/>
-    <col min="13832" max="13833" width="9.140625" style="7"/>
-    <col min="13834" max="13835" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13836" max="13841" width="9.140625" style="7"/>
-    <col min="13842" max="13842" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13843" max="13844" width="9.140625" style="7"/>
-    <col min="13845" max="13845" width="3.85546875" style="7" customWidth="1"/>
-    <col min="13846" max="13855" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13856" max="14080" width="9.140625" style="7"/>
-    <col min="14081" max="14081" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="4" style="7" customWidth="1"/>
-    <col min="14083" max="14083" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14085" max="14085" width="8.140625" style="7" customWidth="1"/>
-    <col min="14086" max="14086" width="9.140625" style="7"/>
-    <col min="14087" max="14087" width="3.42578125" style="7" customWidth="1"/>
-    <col min="14088" max="14089" width="9.140625" style="7"/>
-    <col min="14090" max="14091" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14092" max="14097" width="9.140625" style="7"/>
-    <col min="14098" max="14098" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14099" max="14100" width="9.140625" style="7"/>
-    <col min="14101" max="14101" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14102" max="14111" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14112" max="14336" width="9.140625" style="7"/>
-    <col min="14337" max="14337" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="4" style="7" customWidth="1"/>
-    <col min="14339" max="14339" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14341" max="14341" width="8.140625" style="7" customWidth="1"/>
-    <col min="14342" max="14342" width="9.140625" style="7"/>
-    <col min="14343" max="14343" width="3.42578125" style="7" customWidth="1"/>
-    <col min="14344" max="14345" width="9.140625" style="7"/>
-    <col min="14346" max="14347" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14348" max="14353" width="9.140625" style="7"/>
-    <col min="14354" max="14354" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14355" max="14356" width="9.140625" style="7"/>
-    <col min="14357" max="14357" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14358" max="14367" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14368" max="14592" width="9.140625" style="7"/>
-    <col min="14593" max="14593" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="4" style="7" customWidth="1"/>
-    <col min="14595" max="14595" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14597" max="14597" width="8.140625" style="7" customWidth="1"/>
-    <col min="14598" max="14598" width="9.140625" style="7"/>
-    <col min="14599" max="14599" width="3.42578125" style="7" customWidth="1"/>
-    <col min="14600" max="14601" width="9.140625" style="7"/>
-    <col min="14602" max="14603" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14604" max="14609" width="9.140625" style="7"/>
-    <col min="14610" max="14610" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14611" max="14612" width="9.140625" style="7"/>
-    <col min="14613" max="14613" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14614" max="14623" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14624" max="14848" width="9.140625" style="7"/>
-    <col min="14849" max="14849" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="4" style="7" customWidth="1"/>
-    <col min="14851" max="14851" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14853" max="14853" width="8.140625" style="7" customWidth="1"/>
-    <col min="14854" max="14854" width="9.140625" style="7"/>
-    <col min="14855" max="14855" width="3.42578125" style="7" customWidth="1"/>
-    <col min="14856" max="14857" width="9.140625" style="7"/>
-    <col min="14858" max="14859" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14860" max="14865" width="9.140625" style="7"/>
-    <col min="14866" max="14866" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14867" max="14868" width="9.140625" style="7"/>
-    <col min="14869" max="14869" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14870" max="14879" width="1.7109375" style="7" customWidth="1"/>
-    <col min="14880" max="15104" width="9.140625" style="7"/>
-    <col min="15105" max="15105" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="4" style="7" customWidth="1"/>
-    <col min="15107" max="15107" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.7109375" style="7" customWidth="1"/>
-    <col min="15109" max="15109" width="8.140625" style="7" customWidth="1"/>
-    <col min="15110" max="15110" width="9.140625" style="7"/>
-    <col min="15111" max="15111" width="3.42578125" style="7" customWidth="1"/>
-    <col min="15112" max="15113" width="9.140625" style="7"/>
-    <col min="15114" max="15115" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15116" max="15121" width="9.140625" style="7"/>
-    <col min="15122" max="15122" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15123" max="15124" width="9.140625" style="7"/>
-    <col min="15125" max="15125" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15126" max="15135" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15136" max="15360" width="9.140625" style="7"/>
-    <col min="15361" max="15361" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="4" style="7" customWidth="1"/>
-    <col min="15363" max="15363" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.7109375" style="7" customWidth="1"/>
-    <col min="15365" max="15365" width="8.140625" style="7" customWidth="1"/>
-    <col min="15366" max="15366" width="9.140625" style="7"/>
-    <col min="15367" max="15367" width="3.42578125" style="7" customWidth="1"/>
-    <col min="15368" max="15369" width="9.140625" style="7"/>
-    <col min="15370" max="15371" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15372" max="15377" width="9.140625" style="7"/>
-    <col min="15378" max="15378" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15379" max="15380" width="9.140625" style="7"/>
-    <col min="15381" max="15381" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15382" max="15391" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15392" max="15616" width="9.140625" style="7"/>
-    <col min="15617" max="15617" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="4" style="7" customWidth="1"/>
-    <col min="15619" max="15619" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.7109375" style="7" customWidth="1"/>
-    <col min="15621" max="15621" width="8.140625" style="7" customWidth="1"/>
-    <col min="15622" max="15622" width="9.140625" style="7"/>
-    <col min="15623" max="15623" width="3.42578125" style="7" customWidth="1"/>
-    <col min="15624" max="15625" width="9.140625" style="7"/>
-    <col min="15626" max="15627" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15628" max="15633" width="9.140625" style="7"/>
-    <col min="15634" max="15634" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15635" max="15636" width="9.140625" style="7"/>
-    <col min="15637" max="15637" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15638" max="15647" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15648" max="15872" width="9.140625" style="7"/>
-    <col min="15873" max="15873" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="4" style="7" customWidth="1"/>
-    <col min="15875" max="15875" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.7109375" style="7" customWidth="1"/>
-    <col min="15877" max="15877" width="8.140625" style="7" customWidth="1"/>
-    <col min="15878" max="15878" width="9.140625" style="7"/>
-    <col min="15879" max="15879" width="3.42578125" style="7" customWidth="1"/>
-    <col min="15880" max="15881" width="9.140625" style="7"/>
-    <col min="15882" max="15883" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15884" max="15889" width="9.140625" style="7"/>
-    <col min="15890" max="15890" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15891" max="15892" width="9.140625" style="7"/>
-    <col min="15893" max="15893" width="3.85546875" style="7" customWidth="1"/>
-    <col min="15894" max="15903" width="1.7109375" style="7" customWidth="1"/>
-    <col min="15904" max="16128" width="9.140625" style="7"/>
-    <col min="16129" max="16129" width="1.7109375" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="4" style="7" customWidth="1"/>
-    <col min="16131" max="16131" width="10.28515625" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.7109375" style="7" customWidth="1"/>
-    <col min="16133" max="16133" width="8.140625" style="7" customWidth="1"/>
-    <col min="16134" max="16134" width="9.140625" style="7"/>
-    <col min="16135" max="16135" width="3.42578125" style="7" customWidth="1"/>
-    <col min="16136" max="16137" width="9.140625" style="7"/>
-    <col min="16138" max="16139" width="3.85546875" style="7" customWidth="1"/>
-    <col min="16140" max="16145" width="9.140625" style="7"/>
-    <col min="16146" max="16146" width="1.7109375" style="7" customWidth="1"/>
-    <col min="16147" max="16148" width="9.140625" style="7"/>
-    <col min="16149" max="16149" width="3.85546875" style="7" customWidth="1"/>
-    <col min="16150" max="16159" width="1.7109375" style="7" customWidth="1"/>
-    <col min="16160" max="16384" width="9.140625" style="7"/>
+    <col min="4" max="4" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="4" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="3.42578125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="7"/>
+    <col min="13" max="14" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="7"/>
+    <col min="21" max="21" width="1.7109375" style="7" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="7"/>
+    <col min="24" max="24" width="3.85546875" style="7" customWidth="1"/>
+    <col min="25" max="34" width="1.7109375" style="7" customWidth="1"/>
+    <col min="35" max="259" width="9.140625" style="7"/>
+    <col min="260" max="260" width="1.7109375" style="7" customWidth="1"/>
+    <col min="261" max="261" width="4" style="7" customWidth="1"/>
+    <col min="262" max="262" width="10.28515625" style="7" customWidth="1"/>
+    <col min="263" max="263" width="12.7109375" style="7" customWidth="1"/>
+    <col min="264" max="264" width="8.140625" style="7" customWidth="1"/>
+    <col min="265" max="265" width="9.140625" style="7"/>
+    <col min="266" max="266" width="3.42578125" style="7" customWidth="1"/>
+    <col min="267" max="268" width="9.140625" style="7"/>
+    <col min="269" max="270" width="3.85546875" style="7" customWidth="1"/>
+    <col min="271" max="276" width="9.140625" style="7"/>
+    <col min="277" max="277" width="1.7109375" style="7" customWidth="1"/>
+    <col min="278" max="279" width="9.140625" style="7"/>
+    <col min="280" max="280" width="3.85546875" style="7" customWidth="1"/>
+    <col min="281" max="290" width="1.7109375" style="7" customWidth="1"/>
+    <col min="291" max="515" width="9.140625" style="7"/>
+    <col min="516" max="516" width="1.7109375" style="7" customWidth="1"/>
+    <col min="517" max="517" width="4" style="7" customWidth="1"/>
+    <col min="518" max="518" width="10.28515625" style="7" customWidth="1"/>
+    <col min="519" max="519" width="12.7109375" style="7" customWidth="1"/>
+    <col min="520" max="520" width="8.140625" style="7" customWidth="1"/>
+    <col min="521" max="521" width="9.140625" style="7"/>
+    <col min="522" max="522" width="3.42578125" style="7" customWidth="1"/>
+    <col min="523" max="524" width="9.140625" style="7"/>
+    <col min="525" max="526" width="3.85546875" style="7" customWidth="1"/>
+    <col min="527" max="532" width="9.140625" style="7"/>
+    <col min="533" max="533" width="1.7109375" style="7" customWidth="1"/>
+    <col min="534" max="535" width="9.140625" style="7"/>
+    <col min="536" max="536" width="3.85546875" style="7" customWidth="1"/>
+    <col min="537" max="546" width="1.7109375" style="7" customWidth="1"/>
+    <col min="547" max="771" width="9.140625" style="7"/>
+    <col min="772" max="772" width="1.7109375" style="7" customWidth="1"/>
+    <col min="773" max="773" width="4" style="7" customWidth="1"/>
+    <col min="774" max="774" width="10.28515625" style="7" customWidth="1"/>
+    <col min="775" max="775" width="12.7109375" style="7" customWidth="1"/>
+    <col min="776" max="776" width="8.140625" style="7" customWidth="1"/>
+    <col min="777" max="777" width="9.140625" style="7"/>
+    <col min="778" max="778" width="3.42578125" style="7" customWidth="1"/>
+    <col min="779" max="780" width="9.140625" style="7"/>
+    <col min="781" max="782" width="3.85546875" style="7" customWidth="1"/>
+    <col min="783" max="788" width="9.140625" style="7"/>
+    <col min="789" max="789" width="1.7109375" style="7" customWidth="1"/>
+    <col min="790" max="791" width="9.140625" style="7"/>
+    <col min="792" max="792" width="3.85546875" style="7" customWidth="1"/>
+    <col min="793" max="802" width="1.7109375" style="7" customWidth="1"/>
+    <col min="803" max="1027" width="9.140625" style="7"/>
+    <col min="1028" max="1028" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1029" max="1029" width="4" style="7" customWidth="1"/>
+    <col min="1030" max="1030" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1031" max="1031" width="12.7109375" style="7" customWidth="1"/>
+    <col min="1032" max="1032" width="8.140625" style="7" customWidth="1"/>
+    <col min="1033" max="1033" width="9.140625" style="7"/>
+    <col min="1034" max="1034" width="3.42578125" style="7" customWidth="1"/>
+    <col min="1035" max="1036" width="9.140625" style="7"/>
+    <col min="1037" max="1038" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1039" max="1044" width="9.140625" style="7"/>
+    <col min="1045" max="1045" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1046" max="1047" width="9.140625" style="7"/>
+    <col min="1048" max="1048" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1049" max="1058" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1059" max="1283" width="9.140625" style="7"/>
+    <col min="1284" max="1284" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1285" max="1285" width="4" style="7" customWidth="1"/>
+    <col min="1286" max="1286" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1287" max="1287" width="12.7109375" style="7" customWidth="1"/>
+    <col min="1288" max="1288" width="8.140625" style="7" customWidth="1"/>
+    <col min="1289" max="1289" width="9.140625" style="7"/>
+    <col min="1290" max="1290" width="3.42578125" style="7" customWidth="1"/>
+    <col min="1291" max="1292" width="9.140625" style="7"/>
+    <col min="1293" max="1294" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1295" max="1300" width="9.140625" style="7"/>
+    <col min="1301" max="1301" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1302" max="1303" width="9.140625" style="7"/>
+    <col min="1304" max="1304" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1305" max="1314" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1315" max="1539" width="9.140625" style="7"/>
+    <col min="1540" max="1540" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1541" max="1541" width="4" style="7" customWidth="1"/>
+    <col min="1542" max="1542" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1543" max="1543" width="12.7109375" style="7" customWidth="1"/>
+    <col min="1544" max="1544" width="8.140625" style="7" customWidth="1"/>
+    <col min="1545" max="1545" width="9.140625" style="7"/>
+    <col min="1546" max="1546" width="3.42578125" style="7" customWidth="1"/>
+    <col min="1547" max="1548" width="9.140625" style="7"/>
+    <col min="1549" max="1550" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1551" max="1556" width="9.140625" style="7"/>
+    <col min="1557" max="1557" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1558" max="1559" width="9.140625" style="7"/>
+    <col min="1560" max="1560" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1561" max="1570" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1571" max="1795" width="9.140625" style="7"/>
+    <col min="1796" max="1796" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1797" max="1797" width="4" style="7" customWidth="1"/>
+    <col min="1798" max="1798" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1799" max="1799" width="12.7109375" style="7" customWidth="1"/>
+    <col min="1800" max="1800" width="8.140625" style="7" customWidth="1"/>
+    <col min="1801" max="1801" width="9.140625" style="7"/>
+    <col min="1802" max="1802" width="3.42578125" style="7" customWidth="1"/>
+    <col min="1803" max="1804" width="9.140625" style="7"/>
+    <col min="1805" max="1806" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1807" max="1812" width="9.140625" style="7"/>
+    <col min="1813" max="1813" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1814" max="1815" width="9.140625" style="7"/>
+    <col min="1816" max="1816" width="3.85546875" style="7" customWidth="1"/>
+    <col min="1817" max="1826" width="1.7109375" style="7" customWidth="1"/>
+    <col min="1827" max="2051" width="9.140625" style="7"/>
+    <col min="2052" max="2052" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2053" max="2053" width="4" style="7" customWidth="1"/>
+    <col min="2054" max="2054" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2055" max="2055" width="12.7109375" style="7" customWidth="1"/>
+    <col min="2056" max="2056" width="8.140625" style="7" customWidth="1"/>
+    <col min="2057" max="2057" width="9.140625" style="7"/>
+    <col min="2058" max="2058" width="3.42578125" style="7" customWidth="1"/>
+    <col min="2059" max="2060" width="9.140625" style="7"/>
+    <col min="2061" max="2062" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2063" max="2068" width="9.140625" style="7"/>
+    <col min="2069" max="2069" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2070" max="2071" width="9.140625" style="7"/>
+    <col min="2072" max="2072" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2073" max="2082" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2083" max="2307" width="9.140625" style="7"/>
+    <col min="2308" max="2308" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2309" max="2309" width="4" style="7" customWidth="1"/>
+    <col min="2310" max="2310" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2311" max="2311" width="12.7109375" style="7" customWidth="1"/>
+    <col min="2312" max="2312" width="8.140625" style="7" customWidth="1"/>
+    <col min="2313" max="2313" width="9.140625" style="7"/>
+    <col min="2314" max="2314" width="3.42578125" style="7" customWidth="1"/>
+    <col min="2315" max="2316" width="9.140625" style="7"/>
+    <col min="2317" max="2318" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2319" max="2324" width="9.140625" style="7"/>
+    <col min="2325" max="2325" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2326" max="2327" width="9.140625" style="7"/>
+    <col min="2328" max="2328" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2329" max="2338" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2339" max="2563" width="9.140625" style="7"/>
+    <col min="2564" max="2564" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2565" max="2565" width="4" style="7" customWidth="1"/>
+    <col min="2566" max="2566" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2567" max="2567" width="12.7109375" style="7" customWidth="1"/>
+    <col min="2568" max="2568" width="8.140625" style="7" customWidth="1"/>
+    <col min="2569" max="2569" width="9.140625" style="7"/>
+    <col min="2570" max="2570" width="3.42578125" style="7" customWidth="1"/>
+    <col min="2571" max="2572" width="9.140625" style="7"/>
+    <col min="2573" max="2574" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2575" max="2580" width="9.140625" style="7"/>
+    <col min="2581" max="2581" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2582" max="2583" width="9.140625" style="7"/>
+    <col min="2584" max="2584" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2585" max="2594" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2595" max="2819" width="9.140625" style="7"/>
+    <col min="2820" max="2820" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2821" max="2821" width="4" style="7" customWidth="1"/>
+    <col min="2822" max="2822" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2823" max="2823" width="12.7109375" style="7" customWidth="1"/>
+    <col min="2824" max="2824" width="8.140625" style="7" customWidth="1"/>
+    <col min="2825" max="2825" width="9.140625" style="7"/>
+    <col min="2826" max="2826" width="3.42578125" style="7" customWidth="1"/>
+    <col min="2827" max="2828" width="9.140625" style="7"/>
+    <col min="2829" max="2830" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2831" max="2836" width="9.140625" style="7"/>
+    <col min="2837" max="2837" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2838" max="2839" width="9.140625" style="7"/>
+    <col min="2840" max="2840" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2841" max="2850" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2851" max="3075" width="9.140625" style="7"/>
+    <col min="3076" max="3076" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3077" max="3077" width="4" style="7" customWidth="1"/>
+    <col min="3078" max="3078" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3079" max="3079" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3080" max="3080" width="8.140625" style="7" customWidth="1"/>
+    <col min="3081" max="3081" width="9.140625" style="7"/>
+    <col min="3082" max="3082" width="3.42578125" style="7" customWidth="1"/>
+    <col min="3083" max="3084" width="9.140625" style="7"/>
+    <col min="3085" max="3086" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3087" max="3092" width="9.140625" style="7"/>
+    <col min="3093" max="3093" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3094" max="3095" width="9.140625" style="7"/>
+    <col min="3096" max="3096" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3097" max="3106" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3107" max="3331" width="9.140625" style="7"/>
+    <col min="3332" max="3332" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3333" max="3333" width="4" style="7" customWidth="1"/>
+    <col min="3334" max="3334" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3335" max="3335" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3336" max="3336" width="8.140625" style="7" customWidth="1"/>
+    <col min="3337" max="3337" width="9.140625" style="7"/>
+    <col min="3338" max="3338" width="3.42578125" style="7" customWidth="1"/>
+    <col min="3339" max="3340" width="9.140625" style="7"/>
+    <col min="3341" max="3342" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3343" max="3348" width="9.140625" style="7"/>
+    <col min="3349" max="3349" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3350" max="3351" width="9.140625" style="7"/>
+    <col min="3352" max="3352" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3353" max="3362" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3363" max="3587" width="9.140625" style="7"/>
+    <col min="3588" max="3588" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3589" max="3589" width="4" style="7" customWidth="1"/>
+    <col min="3590" max="3590" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3591" max="3591" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3592" max="3592" width="8.140625" style="7" customWidth="1"/>
+    <col min="3593" max="3593" width="9.140625" style="7"/>
+    <col min="3594" max="3594" width="3.42578125" style="7" customWidth="1"/>
+    <col min="3595" max="3596" width="9.140625" style="7"/>
+    <col min="3597" max="3598" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3599" max="3604" width="9.140625" style="7"/>
+    <col min="3605" max="3605" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3606" max="3607" width="9.140625" style="7"/>
+    <col min="3608" max="3608" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3609" max="3618" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3619" max="3843" width="9.140625" style="7"/>
+    <col min="3844" max="3844" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3845" max="3845" width="4" style="7" customWidth="1"/>
+    <col min="3846" max="3846" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3847" max="3847" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3848" max="3848" width="8.140625" style="7" customWidth="1"/>
+    <col min="3849" max="3849" width="9.140625" style="7"/>
+    <col min="3850" max="3850" width="3.42578125" style="7" customWidth="1"/>
+    <col min="3851" max="3852" width="9.140625" style="7"/>
+    <col min="3853" max="3854" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3855" max="3860" width="9.140625" style="7"/>
+    <col min="3861" max="3861" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3862" max="3863" width="9.140625" style="7"/>
+    <col min="3864" max="3864" width="3.85546875" style="7" customWidth="1"/>
+    <col min="3865" max="3874" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3875" max="4099" width="9.140625" style="7"/>
+    <col min="4100" max="4100" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4101" max="4101" width="4" style="7" customWidth="1"/>
+    <col min="4102" max="4102" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4103" max="4103" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4104" max="4104" width="8.140625" style="7" customWidth="1"/>
+    <col min="4105" max="4105" width="9.140625" style="7"/>
+    <col min="4106" max="4106" width="3.42578125" style="7" customWidth="1"/>
+    <col min="4107" max="4108" width="9.140625" style="7"/>
+    <col min="4109" max="4110" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4111" max="4116" width="9.140625" style="7"/>
+    <col min="4117" max="4117" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4118" max="4119" width="9.140625" style="7"/>
+    <col min="4120" max="4120" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4121" max="4130" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4131" max="4355" width="9.140625" style="7"/>
+    <col min="4356" max="4356" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4357" max="4357" width="4" style="7" customWidth="1"/>
+    <col min="4358" max="4358" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4359" max="4359" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4360" max="4360" width="8.140625" style="7" customWidth="1"/>
+    <col min="4361" max="4361" width="9.140625" style="7"/>
+    <col min="4362" max="4362" width="3.42578125" style="7" customWidth="1"/>
+    <col min="4363" max="4364" width="9.140625" style="7"/>
+    <col min="4365" max="4366" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4367" max="4372" width="9.140625" style="7"/>
+    <col min="4373" max="4373" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4374" max="4375" width="9.140625" style="7"/>
+    <col min="4376" max="4376" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4377" max="4386" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4387" max="4611" width="9.140625" style="7"/>
+    <col min="4612" max="4612" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4613" max="4613" width="4" style="7" customWidth="1"/>
+    <col min="4614" max="4614" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4615" max="4615" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4616" max="4616" width="8.140625" style="7" customWidth="1"/>
+    <col min="4617" max="4617" width="9.140625" style="7"/>
+    <col min="4618" max="4618" width="3.42578125" style="7" customWidth="1"/>
+    <col min="4619" max="4620" width="9.140625" style="7"/>
+    <col min="4621" max="4622" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4623" max="4628" width="9.140625" style="7"/>
+    <col min="4629" max="4629" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4630" max="4631" width="9.140625" style="7"/>
+    <col min="4632" max="4632" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4633" max="4642" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4643" max="4867" width="9.140625" style="7"/>
+    <col min="4868" max="4868" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4869" max="4869" width="4" style="7" customWidth="1"/>
+    <col min="4870" max="4870" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4871" max="4871" width="12.7109375" style="7" customWidth="1"/>
+    <col min="4872" max="4872" width="8.140625" style="7" customWidth="1"/>
+    <col min="4873" max="4873" width="9.140625" style="7"/>
+    <col min="4874" max="4874" width="3.42578125" style="7" customWidth="1"/>
+    <col min="4875" max="4876" width="9.140625" style="7"/>
+    <col min="4877" max="4878" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4879" max="4884" width="9.140625" style="7"/>
+    <col min="4885" max="4885" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4886" max="4887" width="9.140625" style="7"/>
+    <col min="4888" max="4888" width="3.85546875" style="7" customWidth="1"/>
+    <col min="4889" max="4898" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4899" max="5123" width="9.140625" style="7"/>
+    <col min="5124" max="5124" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5125" max="5125" width="4" style="7" customWidth="1"/>
+    <col min="5126" max="5126" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5127" max="5127" width="12.7109375" style="7" customWidth="1"/>
+    <col min="5128" max="5128" width="8.140625" style="7" customWidth="1"/>
+    <col min="5129" max="5129" width="9.140625" style="7"/>
+    <col min="5130" max="5130" width="3.42578125" style="7" customWidth="1"/>
+    <col min="5131" max="5132" width="9.140625" style="7"/>
+    <col min="5133" max="5134" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5135" max="5140" width="9.140625" style="7"/>
+    <col min="5141" max="5141" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5142" max="5143" width="9.140625" style="7"/>
+    <col min="5144" max="5144" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5145" max="5154" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5155" max="5379" width="9.140625" style="7"/>
+    <col min="5380" max="5380" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5381" max="5381" width="4" style="7" customWidth="1"/>
+    <col min="5382" max="5382" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5383" max="5383" width="12.7109375" style="7" customWidth="1"/>
+    <col min="5384" max="5384" width="8.140625" style="7" customWidth="1"/>
+    <col min="5385" max="5385" width="9.140625" style="7"/>
+    <col min="5386" max="5386" width="3.42578125" style="7" customWidth="1"/>
+    <col min="5387" max="5388" width="9.140625" style="7"/>
+    <col min="5389" max="5390" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5391" max="5396" width="9.140625" style="7"/>
+    <col min="5397" max="5397" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5398" max="5399" width="9.140625" style="7"/>
+    <col min="5400" max="5400" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5401" max="5410" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5411" max="5635" width="9.140625" style="7"/>
+    <col min="5636" max="5636" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5637" max="5637" width="4" style="7" customWidth="1"/>
+    <col min="5638" max="5638" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5639" max="5639" width="12.7109375" style="7" customWidth="1"/>
+    <col min="5640" max="5640" width="8.140625" style="7" customWidth="1"/>
+    <col min="5641" max="5641" width="9.140625" style="7"/>
+    <col min="5642" max="5642" width="3.42578125" style="7" customWidth="1"/>
+    <col min="5643" max="5644" width="9.140625" style="7"/>
+    <col min="5645" max="5646" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5647" max="5652" width="9.140625" style="7"/>
+    <col min="5653" max="5653" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5654" max="5655" width="9.140625" style="7"/>
+    <col min="5656" max="5656" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5657" max="5666" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5667" max="5891" width="9.140625" style="7"/>
+    <col min="5892" max="5892" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5893" max="5893" width="4" style="7" customWidth="1"/>
+    <col min="5894" max="5894" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5895" max="5895" width="12.7109375" style="7" customWidth="1"/>
+    <col min="5896" max="5896" width="8.140625" style="7" customWidth="1"/>
+    <col min="5897" max="5897" width="9.140625" style="7"/>
+    <col min="5898" max="5898" width="3.42578125" style="7" customWidth="1"/>
+    <col min="5899" max="5900" width="9.140625" style="7"/>
+    <col min="5901" max="5902" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5903" max="5908" width="9.140625" style="7"/>
+    <col min="5909" max="5909" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5910" max="5911" width="9.140625" style="7"/>
+    <col min="5912" max="5912" width="3.85546875" style="7" customWidth="1"/>
+    <col min="5913" max="5922" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5923" max="6147" width="9.140625" style="7"/>
+    <col min="6148" max="6148" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6149" max="6149" width="4" style="7" customWidth="1"/>
+    <col min="6150" max="6150" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6151" max="6151" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6152" max="6152" width="8.140625" style="7" customWidth="1"/>
+    <col min="6153" max="6153" width="9.140625" style="7"/>
+    <col min="6154" max="6154" width="3.42578125" style="7" customWidth="1"/>
+    <col min="6155" max="6156" width="9.140625" style="7"/>
+    <col min="6157" max="6158" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6159" max="6164" width="9.140625" style="7"/>
+    <col min="6165" max="6165" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6166" max="6167" width="9.140625" style="7"/>
+    <col min="6168" max="6168" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6169" max="6178" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6179" max="6403" width="9.140625" style="7"/>
+    <col min="6404" max="6404" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6405" max="6405" width="4" style="7" customWidth="1"/>
+    <col min="6406" max="6406" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6407" max="6407" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6408" max="6408" width="8.140625" style="7" customWidth="1"/>
+    <col min="6409" max="6409" width="9.140625" style="7"/>
+    <col min="6410" max="6410" width="3.42578125" style="7" customWidth="1"/>
+    <col min="6411" max="6412" width="9.140625" style="7"/>
+    <col min="6413" max="6414" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6415" max="6420" width="9.140625" style="7"/>
+    <col min="6421" max="6421" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6422" max="6423" width="9.140625" style="7"/>
+    <col min="6424" max="6424" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6425" max="6434" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6435" max="6659" width="9.140625" style="7"/>
+    <col min="6660" max="6660" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6661" max="6661" width="4" style="7" customWidth="1"/>
+    <col min="6662" max="6662" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6663" max="6663" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6664" max="6664" width="8.140625" style="7" customWidth="1"/>
+    <col min="6665" max="6665" width="9.140625" style="7"/>
+    <col min="6666" max="6666" width="3.42578125" style="7" customWidth="1"/>
+    <col min="6667" max="6668" width="9.140625" style="7"/>
+    <col min="6669" max="6670" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6671" max="6676" width="9.140625" style="7"/>
+    <col min="6677" max="6677" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6678" max="6679" width="9.140625" style="7"/>
+    <col min="6680" max="6680" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6681" max="6690" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6691" max="6915" width="9.140625" style="7"/>
+    <col min="6916" max="6916" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6917" max="6917" width="4" style="7" customWidth="1"/>
+    <col min="6918" max="6918" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6919" max="6919" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6920" max="6920" width="8.140625" style="7" customWidth="1"/>
+    <col min="6921" max="6921" width="9.140625" style="7"/>
+    <col min="6922" max="6922" width="3.42578125" style="7" customWidth="1"/>
+    <col min="6923" max="6924" width="9.140625" style="7"/>
+    <col min="6925" max="6926" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6927" max="6932" width="9.140625" style="7"/>
+    <col min="6933" max="6933" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6934" max="6935" width="9.140625" style="7"/>
+    <col min="6936" max="6936" width="3.85546875" style="7" customWidth="1"/>
+    <col min="6937" max="6946" width="1.7109375" style="7" customWidth="1"/>
+    <col min="6947" max="7171" width="9.140625" style="7"/>
+    <col min="7172" max="7172" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7173" max="7173" width="4" style="7" customWidth="1"/>
+    <col min="7174" max="7174" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7175" max="7175" width="12.7109375" style="7" customWidth="1"/>
+    <col min="7176" max="7176" width="8.140625" style="7" customWidth="1"/>
+    <col min="7177" max="7177" width="9.140625" style="7"/>
+    <col min="7178" max="7178" width="3.42578125" style="7" customWidth="1"/>
+    <col min="7179" max="7180" width="9.140625" style="7"/>
+    <col min="7181" max="7182" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7183" max="7188" width="9.140625" style="7"/>
+    <col min="7189" max="7189" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7190" max="7191" width="9.140625" style="7"/>
+    <col min="7192" max="7192" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7193" max="7202" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7203" max="7427" width="9.140625" style="7"/>
+    <col min="7428" max="7428" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7429" max="7429" width="4" style="7" customWidth="1"/>
+    <col min="7430" max="7430" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7431" max="7431" width="12.7109375" style="7" customWidth="1"/>
+    <col min="7432" max="7432" width="8.140625" style="7" customWidth="1"/>
+    <col min="7433" max="7433" width="9.140625" style="7"/>
+    <col min="7434" max="7434" width="3.42578125" style="7" customWidth="1"/>
+    <col min="7435" max="7436" width="9.140625" style="7"/>
+    <col min="7437" max="7438" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7439" max="7444" width="9.140625" style="7"/>
+    <col min="7445" max="7445" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7446" max="7447" width="9.140625" style="7"/>
+    <col min="7448" max="7448" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7449" max="7458" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7459" max="7683" width="9.140625" style="7"/>
+    <col min="7684" max="7684" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7685" max="7685" width="4" style="7" customWidth="1"/>
+    <col min="7686" max="7686" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7687" max="7687" width="12.7109375" style="7" customWidth="1"/>
+    <col min="7688" max="7688" width="8.140625" style="7" customWidth="1"/>
+    <col min="7689" max="7689" width="9.140625" style="7"/>
+    <col min="7690" max="7690" width="3.42578125" style="7" customWidth="1"/>
+    <col min="7691" max="7692" width="9.140625" style="7"/>
+    <col min="7693" max="7694" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7695" max="7700" width="9.140625" style="7"/>
+    <col min="7701" max="7701" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7702" max="7703" width="9.140625" style="7"/>
+    <col min="7704" max="7704" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7705" max="7714" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7715" max="7939" width="9.140625" style="7"/>
+    <col min="7940" max="7940" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7941" max="7941" width="4" style="7" customWidth="1"/>
+    <col min="7942" max="7942" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7943" max="7943" width="12.7109375" style="7" customWidth="1"/>
+    <col min="7944" max="7944" width="8.140625" style="7" customWidth="1"/>
+    <col min="7945" max="7945" width="9.140625" style="7"/>
+    <col min="7946" max="7946" width="3.42578125" style="7" customWidth="1"/>
+    <col min="7947" max="7948" width="9.140625" style="7"/>
+    <col min="7949" max="7950" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7951" max="7956" width="9.140625" style="7"/>
+    <col min="7957" max="7957" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7958" max="7959" width="9.140625" style="7"/>
+    <col min="7960" max="7960" width="3.85546875" style="7" customWidth="1"/>
+    <col min="7961" max="7970" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7971" max="8195" width="9.140625" style="7"/>
+    <col min="8196" max="8196" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8197" max="8197" width="4" style="7" customWidth="1"/>
+    <col min="8198" max="8198" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8199" max="8199" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8200" max="8200" width="8.140625" style="7" customWidth="1"/>
+    <col min="8201" max="8201" width="9.140625" style="7"/>
+    <col min="8202" max="8202" width="3.42578125" style="7" customWidth="1"/>
+    <col min="8203" max="8204" width="9.140625" style="7"/>
+    <col min="8205" max="8206" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8207" max="8212" width="9.140625" style="7"/>
+    <col min="8213" max="8213" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8214" max="8215" width="9.140625" style="7"/>
+    <col min="8216" max="8216" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8217" max="8226" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8227" max="8451" width="9.140625" style="7"/>
+    <col min="8452" max="8452" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8453" max="8453" width="4" style="7" customWidth="1"/>
+    <col min="8454" max="8454" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8455" max="8455" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8456" max="8456" width="8.140625" style="7" customWidth="1"/>
+    <col min="8457" max="8457" width="9.140625" style="7"/>
+    <col min="8458" max="8458" width="3.42578125" style="7" customWidth="1"/>
+    <col min="8459" max="8460" width="9.140625" style="7"/>
+    <col min="8461" max="8462" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8463" max="8468" width="9.140625" style="7"/>
+    <col min="8469" max="8469" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8470" max="8471" width="9.140625" style="7"/>
+    <col min="8472" max="8472" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8473" max="8482" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8483" max="8707" width="9.140625" style="7"/>
+    <col min="8708" max="8708" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8709" max="8709" width="4" style="7" customWidth="1"/>
+    <col min="8710" max="8710" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8711" max="8711" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8712" max="8712" width="8.140625" style="7" customWidth="1"/>
+    <col min="8713" max="8713" width="9.140625" style="7"/>
+    <col min="8714" max="8714" width="3.42578125" style="7" customWidth="1"/>
+    <col min="8715" max="8716" width="9.140625" style="7"/>
+    <col min="8717" max="8718" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8719" max="8724" width="9.140625" style="7"/>
+    <col min="8725" max="8725" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8726" max="8727" width="9.140625" style="7"/>
+    <col min="8728" max="8728" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8729" max="8738" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8739" max="8963" width="9.140625" style="7"/>
+    <col min="8964" max="8964" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8965" max="8965" width="4" style="7" customWidth="1"/>
+    <col min="8966" max="8966" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8967" max="8967" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8968" max="8968" width="8.140625" style="7" customWidth="1"/>
+    <col min="8969" max="8969" width="9.140625" style="7"/>
+    <col min="8970" max="8970" width="3.42578125" style="7" customWidth="1"/>
+    <col min="8971" max="8972" width="9.140625" style="7"/>
+    <col min="8973" max="8974" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8975" max="8980" width="9.140625" style="7"/>
+    <col min="8981" max="8981" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8982" max="8983" width="9.140625" style="7"/>
+    <col min="8984" max="8984" width="3.85546875" style="7" customWidth="1"/>
+    <col min="8985" max="8994" width="1.7109375" style="7" customWidth="1"/>
+    <col min="8995" max="9219" width="9.140625" style="7"/>
+    <col min="9220" max="9220" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9221" max="9221" width="4" style="7" customWidth="1"/>
+    <col min="9222" max="9222" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9223" max="9223" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9224" max="9224" width="8.140625" style="7" customWidth="1"/>
+    <col min="9225" max="9225" width="9.140625" style="7"/>
+    <col min="9226" max="9226" width="3.42578125" style="7" customWidth="1"/>
+    <col min="9227" max="9228" width="9.140625" style="7"/>
+    <col min="9229" max="9230" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9231" max="9236" width="9.140625" style="7"/>
+    <col min="9237" max="9237" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9238" max="9239" width="9.140625" style="7"/>
+    <col min="9240" max="9240" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9241" max="9250" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9251" max="9475" width="9.140625" style="7"/>
+    <col min="9476" max="9476" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9477" max="9477" width="4" style="7" customWidth="1"/>
+    <col min="9478" max="9478" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9479" max="9479" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9480" max="9480" width="8.140625" style="7" customWidth="1"/>
+    <col min="9481" max="9481" width="9.140625" style="7"/>
+    <col min="9482" max="9482" width="3.42578125" style="7" customWidth="1"/>
+    <col min="9483" max="9484" width="9.140625" style="7"/>
+    <col min="9485" max="9486" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9487" max="9492" width="9.140625" style="7"/>
+    <col min="9493" max="9493" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9494" max="9495" width="9.140625" style="7"/>
+    <col min="9496" max="9496" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9497" max="9506" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9507" max="9731" width="9.140625" style="7"/>
+    <col min="9732" max="9732" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9733" max="9733" width="4" style="7" customWidth="1"/>
+    <col min="9734" max="9734" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9735" max="9735" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9736" max="9736" width="8.140625" style="7" customWidth="1"/>
+    <col min="9737" max="9737" width="9.140625" style="7"/>
+    <col min="9738" max="9738" width="3.42578125" style="7" customWidth="1"/>
+    <col min="9739" max="9740" width="9.140625" style="7"/>
+    <col min="9741" max="9742" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9743" max="9748" width="9.140625" style="7"/>
+    <col min="9749" max="9749" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9750" max="9751" width="9.140625" style="7"/>
+    <col min="9752" max="9752" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9753" max="9762" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9763" max="9987" width="9.140625" style="7"/>
+    <col min="9988" max="9988" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9989" max="9989" width="4" style="7" customWidth="1"/>
+    <col min="9990" max="9990" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9991" max="9991" width="12.7109375" style="7" customWidth="1"/>
+    <col min="9992" max="9992" width="8.140625" style="7" customWidth="1"/>
+    <col min="9993" max="9993" width="9.140625" style="7"/>
+    <col min="9994" max="9994" width="3.42578125" style="7" customWidth="1"/>
+    <col min="9995" max="9996" width="9.140625" style="7"/>
+    <col min="9997" max="9998" width="3.85546875" style="7" customWidth="1"/>
+    <col min="9999" max="10004" width="9.140625" style="7"/>
+    <col min="10005" max="10005" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10006" max="10007" width="9.140625" style="7"/>
+    <col min="10008" max="10008" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10009" max="10018" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10019" max="10243" width="9.140625" style="7"/>
+    <col min="10244" max="10244" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10245" max="10245" width="4" style="7" customWidth="1"/>
+    <col min="10246" max="10246" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10247" max="10247" width="12.7109375" style="7" customWidth="1"/>
+    <col min="10248" max="10248" width="8.140625" style="7" customWidth="1"/>
+    <col min="10249" max="10249" width="9.140625" style="7"/>
+    <col min="10250" max="10250" width="3.42578125" style="7" customWidth="1"/>
+    <col min="10251" max="10252" width="9.140625" style="7"/>
+    <col min="10253" max="10254" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10255" max="10260" width="9.140625" style="7"/>
+    <col min="10261" max="10261" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10262" max="10263" width="9.140625" style="7"/>
+    <col min="10264" max="10264" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10265" max="10274" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10275" max="10499" width="9.140625" style="7"/>
+    <col min="10500" max="10500" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10501" max="10501" width="4" style="7" customWidth="1"/>
+    <col min="10502" max="10502" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10503" max="10503" width="12.7109375" style="7" customWidth="1"/>
+    <col min="10504" max="10504" width="8.140625" style="7" customWidth="1"/>
+    <col min="10505" max="10505" width="9.140625" style="7"/>
+    <col min="10506" max="10506" width="3.42578125" style="7" customWidth="1"/>
+    <col min="10507" max="10508" width="9.140625" style="7"/>
+    <col min="10509" max="10510" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10511" max="10516" width="9.140625" style="7"/>
+    <col min="10517" max="10517" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10518" max="10519" width="9.140625" style="7"/>
+    <col min="10520" max="10520" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10521" max="10530" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10531" max="10755" width="9.140625" style="7"/>
+    <col min="10756" max="10756" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10757" max="10757" width="4" style="7" customWidth="1"/>
+    <col min="10758" max="10758" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10759" max="10759" width="12.7109375" style="7" customWidth="1"/>
+    <col min="10760" max="10760" width="8.140625" style="7" customWidth="1"/>
+    <col min="10761" max="10761" width="9.140625" style="7"/>
+    <col min="10762" max="10762" width="3.42578125" style="7" customWidth="1"/>
+    <col min="10763" max="10764" width="9.140625" style="7"/>
+    <col min="10765" max="10766" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10767" max="10772" width="9.140625" style="7"/>
+    <col min="10773" max="10773" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10774" max="10775" width="9.140625" style="7"/>
+    <col min="10776" max="10776" width="3.85546875" style="7" customWidth="1"/>
+    <col min="10777" max="10786" width="1.7109375" style="7" customWidth="1"/>
+    <col min="10787" max="11011" width="9.140625" style="7"/>
+    <col min="11012" max="11012" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11013" max="11013" width="4" style="7" customWidth="1"/>
+    <col min="11014" max="11014" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11015" max="11015" width="12.7109375" style="7" customWidth="1"/>
+    <col min="11016" max="11016" width="8.140625" style="7" customWidth="1"/>
+    <col min="11017" max="11017" width="9.140625" style="7"/>
+    <col min="11018" max="11018" width="3.42578125" style="7" customWidth="1"/>
+    <col min="11019" max="11020" width="9.140625" style="7"/>
+    <col min="11021" max="11022" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11023" max="11028" width="9.140625" style="7"/>
+    <col min="11029" max="11029" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11030" max="11031" width="9.140625" style="7"/>
+    <col min="11032" max="11032" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11033" max="11042" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11043" max="11267" width="9.140625" style="7"/>
+    <col min="11268" max="11268" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11269" max="11269" width="4" style="7" customWidth="1"/>
+    <col min="11270" max="11270" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11271" max="11271" width="12.7109375" style="7" customWidth="1"/>
+    <col min="11272" max="11272" width="8.140625" style="7" customWidth="1"/>
+    <col min="11273" max="11273" width="9.140625" style="7"/>
+    <col min="11274" max="11274" width="3.42578125" style="7" customWidth="1"/>
+    <col min="11275" max="11276" width="9.140625" style="7"/>
+    <col min="11277" max="11278" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11279" max="11284" width="9.140625" style="7"/>
+    <col min="11285" max="11285" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11286" max="11287" width="9.140625" style="7"/>
+    <col min="11288" max="11288" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11289" max="11298" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11299" max="11523" width="9.140625" style="7"/>
+    <col min="11524" max="11524" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11525" max="11525" width="4" style="7" customWidth="1"/>
+    <col min="11526" max="11526" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11527" max="11527" width="12.7109375" style="7" customWidth="1"/>
+    <col min="11528" max="11528" width="8.140625" style="7" customWidth="1"/>
+    <col min="11529" max="11529" width="9.140625" style="7"/>
+    <col min="11530" max="11530" width="3.42578125" style="7" customWidth="1"/>
+    <col min="11531" max="11532" width="9.140625" style="7"/>
+    <col min="11533" max="11534" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11535" max="11540" width="9.140625" style="7"/>
+    <col min="11541" max="11541" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11542" max="11543" width="9.140625" style="7"/>
+    <col min="11544" max="11544" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11545" max="11554" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11555" max="11779" width="9.140625" style="7"/>
+    <col min="11780" max="11780" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11781" max="11781" width="4" style="7" customWidth="1"/>
+    <col min="11782" max="11782" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11783" max="11783" width="12.7109375" style="7" customWidth="1"/>
+    <col min="11784" max="11784" width="8.140625" style="7" customWidth="1"/>
+    <col min="11785" max="11785" width="9.140625" style="7"/>
+    <col min="11786" max="11786" width="3.42578125" style="7" customWidth="1"/>
+    <col min="11787" max="11788" width="9.140625" style="7"/>
+    <col min="11789" max="11790" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11791" max="11796" width="9.140625" style="7"/>
+    <col min="11797" max="11797" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11798" max="11799" width="9.140625" style="7"/>
+    <col min="11800" max="11800" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11801" max="11810" width="1.7109375" style="7" customWidth="1"/>
+    <col min="11811" max="12035" width="9.140625" style="7"/>
+    <col min="12036" max="12036" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12037" max="12037" width="4" style="7" customWidth="1"/>
+    <col min="12038" max="12038" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12039" max="12039" width="12.7109375" style="7" customWidth="1"/>
+    <col min="12040" max="12040" width="8.140625" style="7" customWidth="1"/>
+    <col min="12041" max="12041" width="9.140625" style="7"/>
+    <col min="12042" max="12042" width="3.42578125" style="7" customWidth="1"/>
+    <col min="12043" max="12044" width="9.140625" style="7"/>
+    <col min="12045" max="12046" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12047" max="12052" width="9.140625" style="7"/>
+    <col min="12053" max="12053" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12054" max="12055" width="9.140625" style="7"/>
+    <col min="12056" max="12056" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12057" max="12066" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12067" max="12291" width="9.140625" style="7"/>
+    <col min="12292" max="12292" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12293" max="12293" width="4" style="7" customWidth="1"/>
+    <col min="12294" max="12294" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12295" max="12295" width="12.7109375" style="7" customWidth="1"/>
+    <col min="12296" max="12296" width="8.140625" style="7" customWidth="1"/>
+    <col min="12297" max="12297" width="9.140625" style="7"/>
+    <col min="12298" max="12298" width="3.42578125" style="7" customWidth="1"/>
+    <col min="12299" max="12300" width="9.140625" style="7"/>
+    <col min="12301" max="12302" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12303" max="12308" width="9.140625" style="7"/>
+    <col min="12309" max="12309" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12310" max="12311" width="9.140625" style="7"/>
+    <col min="12312" max="12312" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12313" max="12322" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12323" max="12547" width="9.140625" style="7"/>
+    <col min="12548" max="12548" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12549" max="12549" width="4" style="7" customWidth="1"/>
+    <col min="12550" max="12550" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12551" max="12551" width="12.7109375" style="7" customWidth="1"/>
+    <col min="12552" max="12552" width="8.140625" style="7" customWidth="1"/>
+    <col min="12553" max="12553" width="9.140625" style="7"/>
+    <col min="12554" max="12554" width="3.42578125" style="7" customWidth="1"/>
+    <col min="12555" max="12556" width="9.140625" style="7"/>
+    <col min="12557" max="12558" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12559" max="12564" width="9.140625" style="7"/>
+    <col min="12565" max="12565" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12566" max="12567" width="9.140625" style="7"/>
+    <col min="12568" max="12568" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12569" max="12578" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12579" max="12803" width="9.140625" style="7"/>
+    <col min="12804" max="12804" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12805" max="12805" width="4" style="7" customWidth="1"/>
+    <col min="12806" max="12806" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12807" max="12807" width="12.7109375" style="7" customWidth="1"/>
+    <col min="12808" max="12808" width="8.140625" style="7" customWidth="1"/>
+    <col min="12809" max="12809" width="9.140625" style="7"/>
+    <col min="12810" max="12810" width="3.42578125" style="7" customWidth="1"/>
+    <col min="12811" max="12812" width="9.140625" style="7"/>
+    <col min="12813" max="12814" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12815" max="12820" width="9.140625" style="7"/>
+    <col min="12821" max="12821" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12822" max="12823" width="9.140625" style="7"/>
+    <col min="12824" max="12824" width="3.85546875" style="7" customWidth="1"/>
+    <col min="12825" max="12834" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12835" max="13059" width="9.140625" style="7"/>
+    <col min="13060" max="13060" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13061" max="13061" width="4" style="7" customWidth="1"/>
+    <col min="13062" max="13062" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13063" max="13063" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13064" max="13064" width="8.140625" style="7" customWidth="1"/>
+    <col min="13065" max="13065" width="9.140625" style="7"/>
+    <col min="13066" max="13066" width="3.42578125" style="7" customWidth="1"/>
+    <col min="13067" max="13068" width="9.140625" style="7"/>
+    <col min="13069" max="13070" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13071" max="13076" width="9.140625" style="7"/>
+    <col min="13077" max="13077" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13078" max="13079" width="9.140625" style="7"/>
+    <col min="13080" max="13080" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13081" max="13090" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13091" max="13315" width="9.140625" style="7"/>
+    <col min="13316" max="13316" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13317" max="13317" width="4" style="7" customWidth="1"/>
+    <col min="13318" max="13318" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13319" max="13319" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13320" max="13320" width="8.140625" style="7" customWidth="1"/>
+    <col min="13321" max="13321" width="9.140625" style="7"/>
+    <col min="13322" max="13322" width="3.42578125" style="7" customWidth="1"/>
+    <col min="13323" max="13324" width="9.140625" style="7"/>
+    <col min="13325" max="13326" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13327" max="13332" width="9.140625" style="7"/>
+    <col min="13333" max="13333" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13334" max="13335" width="9.140625" style="7"/>
+    <col min="13336" max="13336" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13337" max="13346" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13347" max="13571" width="9.140625" style="7"/>
+    <col min="13572" max="13572" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13573" max="13573" width="4" style="7" customWidth="1"/>
+    <col min="13574" max="13574" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13575" max="13575" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13576" max="13576" width="8.140625" style="7" customWidth="1"/>
+    <col min="13577" max="13577" width="9.140625" style="7"/>
+    <col min="13578" max="13578" width="3.42578125" style="7" customWidth="1"/>
+    <col min="13579" max="13580" width="9.140625" style="7"/>
+    <col min="13581" max="13582" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13583" max="13588" width="9.140625" style="7"/>
+    <col min="13589" max="13589" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13590" max="13591" width="9.140625" style="7"/>
+    <col min="13592" max="13592" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13593" max="13602" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13603" max="13827" width="9.140625" style="7"/>
+    <col min="13828" max="13828" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13829" max="13829" width="4" style="7" customWidth="1"/>
+    <col min="13830" max="13830" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13831" max="13831" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13832" max="13832" width="8.140625" style="7" customWidth="1"/>
+    <col min="13833" max="13833" width="9.140625" style="7"/>
+    <col min="13834" max="13834" width="3.42578125" style="7" customWidth="1"/>
+    <col min="13835" max="13836" width="9.140625" style="7"/>
+    <col min="13837" max="13838" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13839" max="13844" width="9.140625" style="7"/>
+    <col min="13845" max="13845" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13846" max="13847" width="9.140625" style="7"/>
+    <col min="13848" max="13848" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13849" max="13858" width="1.7109375" style="7" customWidth="1"/>
+    <col min="13859" max="14083" width="9.140625" style="7"/>
+    <col min="14084" max="14084" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14085" max="14085" width="4" style="7" customWidth="1"/>
+    <col min="14086" max="14086" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14087" max="14087" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14088" max="14088" width="8.140625" style="7" customWidth="1"/>
+    <col min="14089" max="14089" width="9.140625" style="7"/>
+    <col min="14090" max="14090" width="3.42578125" style="7" customWidth="1"/>
+    <col min="14091" max="14092" width="9.140625" style="7"/>
+    <col min="14093" max="14094" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14095" max="14100" width="9.140625" style="7"/>
+    <col min="14101" max="14101" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14102" max="14103" width="9.140625" style="7"/>
+    <col min="14104" max="14104" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14105" max="14114" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14115" max="14339" width="9.140625" style="7"/>
+    <col min="14340" max="14340" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14341" max="14341" width="4" style="7" customWidth="1"/>
+    <col min="14342" max="14342" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14343" max="14343" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14344" max="14344" width="8.140625" style="7" customWidth="1"/>
+    <col min="14345" max="14345" width="9.140625" style="7"/>
+    <col min="14346" max="14346" width="3.42578125" style="7" customWidth="1"/>
+    <col min="14347" max="14348" width="9.140625" style="7"/>
+    <col min="14349" max="14350" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14351" max="14356" width="9.140625" style="7"/>
+    <col min="14357" max="14357" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14358" max="14359" width="9.140625" style="7"/>
+    <col min="14360" max="14360" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14361" max="14370" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14371" max="14595" width="9.140625" style="7"/>
+    <col min="14596" max="14596" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14597" max="14597" width="4" style="7" customWidth="1"/>
+    <col min="14598" max="14598" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14599" max="14599" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14600" max="14600" width="8.140625" style="7" customWidth="1"/>
+    <col min="14601" max="14601" width="9.140625" style="7"/>
+    <col min="14602" max="14602" width="3.42578125" style="7" customWidth="1"/>
+    <col min="14603" max="14604" width="9.140625" style="7"/>
+    <col min="14605" max="14606" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14607" max="14612" width="9.140625" style="7"/>
+    <col min="14613" max="14613" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14614" max="14615" width="9.140625" style="7"/>
+    <col min="14616" max="14616" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14617" max="14626" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14627" max="14851" width="9.140625" style="7"/>
+    <col min="14852" max="14852" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14853" max="14853" width="4" style="7" customWidth="1"/>
+    <col min="14854" max="14854" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14855" max="14855" width="12.7109375" style="7" customWidth="1"/>
+    <col min="14856" max="14856" width="8.140625" style="7" customWidth="1"/>
+    <col min="14857" max="14857" width="9.140625" style="7"/>
+    <col min="14858" max="14858" width="3.42578125" style="7" customWidth="1"/>
+    <col min="14859" max="14860" width="9.140625" style="7"/>
+    <col min="14861" max="14862" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14863" max="14868" width="9.140625" style="7"/>
+    <col min="14869" max="14869" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14870" max="14871" width="9.140625" style="7"/>
+    <col min="14872" max="14872" width="3.85546875" style="7" customWidth="1"/>
+    <col min="14873" max="14882" width="1.7109375" style="7" customWidth="1"/>
+    <col min="14883" max="15107" width="9.140625" style="7"/>
+    <col min="15108" max="15108" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15109" max="15109" width="4" style="7" customWidth="1"/>
+    <col min="15110" max="15110" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15111" max="15111" width="12.7109375" style="7" customWidth="1"/>
+    <col min="15112" max="15112" width="8.140625" style="7" customWidth="1"/>
+    <col min="15113" max="15113" width="9.140625" style="7"/>
+    <col min="15114" max="15114" width="3.42578125" style="7" customWidth="1"/>
+    <col min="15115" max="15116" width="9.140625" style="7"/>
+    <col min="15117" max="15118" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15119" max="15124" width="9.140625" style="7"/>
+    <col min="15125" max="15125" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15126" max="15127" width="9.140625" style="7"/>
+    <col min="15128" max="15128" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15129" max="15138" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15139" max="15363" width="9.140625" style="7"/>
+    <col min="15364" max="15364" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15365" max="15365" width="4" style="7" customWidth="1"/>
+    <col min="15366" max="15366" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15367" max="15367" width="12.7109375" style="7" customWidth="1"/>
+    <col min="15368" max="15368" width="8.140625" style="7" customWidth="1"/>
+    <col min="15369" max="15369" width="9.140625" style="7"/>
+    <col min="15370" max="15370" width="3.42578125" style="7" customWidth="1"/>
+    <col min="15371" max="15372" width="9.140625" style="7"/>
+    <col min="15373" max="15374" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15375" max="15380" width="9.140625" style="7"/>
+    <col min="15381" max="15381" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15382" max="15383" width="9.140625" style="7"/>
+    <col min="15384" max="15384" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15385" max="15394" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15395" max="15619" width="9.140625" style="7"/>
+    <col min="15620" max="15620" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15621" max="15621" width="4" style="7" customWidth="1"/>
+    <col min="15622" max="15622" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15623" max="15623" width="12.7109375" style="7" customWidth="1"/>
+    <col min="15624" max="15624" width="8.140625" style="7" customWidth="1"/>
+    <col min="15625" max="15625" width="9.140625" style="7"/>
+    <col min="15626" max="15626" width="3.42578125" style="7" customWidth="1"/>
+    <col min="15627" max="15628" width="9.140625" style="7"/>
+    <col min="15629" max="15630" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15631" max="15636" width="9.140625" style="7"/>
+    <col min="15637" max="15637" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15638" max="15639" width="9.140625" style="7"/>
+    <col min="15640" max="15640" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15641" max="15650" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15651" max="15875" width="9.140625" style="7"/>
+    <col min="15876" max="15876" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15877" max="15877" width="4" style="7" customWidth="1"/>
+    <col min="15878" max="15878" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15879" max="15879" width="12.7109375" style="7" customWidth="1"/>
+    <col min="15880" max="15880" width="8.140625" style="7" customWidth="1"/>
+    <col min="15881" max="15881" width="9.140625" style="7"/>
+    <col min="15882" max="15882" width="3.42578125" style="7" customWidth="1"/>
+    <col min="15883" max="15884" width="9.140625" style="7"/>
+    <col min="15885" max="15886" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15887" max="15892" width="9.140625" style="7"/>
+    <col min="15893" max="15893" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15894" max="15895" width="9.140625" style="7"/>
+    <col min="15896" max="15896" width="3.85546875" style="7" customWidth="1"/>
+    <col min="15897" max="15906" width="1.7109375" style="7" customWidth="1"/>
+    <col min="15907" max="16131" width="9.140625" style="7"/>
+    <col min="16132" max="16132" width="1.7109375" style="7" customWidth="1"/>
+    <col min="16133" max="16133" width="4" style="7" customWidth="1"/>
+    <col min="16134" max="16134" width="10.28515625" style="7" customWidth="1"/>
+    <col min="16135" max="16135" width="12.7109375" style="7" customWidth="1"/>
+    <col min="16136" max="16136" width="8.140625" style="7" customWidth="1"/>
+    <col min="16137" max="16137" width="9.140625" style="7"/>
+    <col min="16138" max="16138" width="3.42578125" style="7" customWidth="1"/>
+    <col min="16139" max="16140" width="9.140625" style="7"/>
+    <col min="16141" max="16142" width="3.85546875" style="7" customWidth="1"/>
+    <col min="16143" max="16148" width="9.140625" style="7"/>
+    <col min="16149" max="16149" width="1.7109375" style="7" customWidth="1"/>
+    <col min="16150" max="16151" width="9.140625" style="7"/>
+    <col min="16152" max="16152" width="3.85546875" style="7" customWidth="1"/>
+    <col min="16153" max="16162" width="1.7109375" style="7" customWidth="1"/>
+    <col min="16163" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="177" t="s">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="179" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="180"/>
+      <c r="X10" s="185"/>
     </row>
-    <row r="11" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="104"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="103"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="106"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="105"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="182"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="187"/>
     </row>
-    <row r="12" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
         <v>73</v>
       </c>
@@ -7566,313 +6871,344 @@
         <v>74</v>
       </c>
       <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
       <c r="S12" s="66"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="184" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="184"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="93" t="s">
+      <c r="L13" s="189"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="93"/>
-      <c r="P13" s="184" t="s">
+      <c r="R13" s="93"/>
+      <c r="S13" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="128" t="s">
+      <c r="T13" s="189"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="128"/>
-      <c r="U13" s="109"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="108"/>
     </row>
-    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
         <v>1</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="214"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="110" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="185" t="s">
+      <c r="R14" s="93"/>
+      <c r="S14" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="109"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="108"/>
     </row>
-    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27">
+      <c r="K15" s="54"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
         <v>1</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="O15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="45"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="31"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="45"/>
+      <c r="S15" s="119"/>
       <c r="T15" s="45"/>
-      <c r="U15" s="55"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="55"/>
     </row>
-    <row r="16" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="28" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="70"/>
-      <c r="U16" s="44"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="70"/>
+      <c r="S16" s="51"/>
+      <c r="V16" s="123"/>
+      <c r="X16" s="44"/>
     </row>
-    <row r="17" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="27">
+      <c r="K17" s="54"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27">
         <v>2</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="O17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="45"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="119"/>
       <c r="T17" s="45"/>
-      <c r="U17" s="55"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="55"/>
     </row>
-    <row r="18" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="70"/>
-      <c r="U18" s="44"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="70"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="123"/>
+      <c r="X18" s="44"/>
     </row>
-    <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27">
         <v>2</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="27">
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="27">
         <v>3</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="O19" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="28"/>
-      <c r="S19" s="45"/>
+      <c r="S19" s="119"/>
       <c r="T19" s="45"/>
-      <c r="U19" s="55"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="55"/>
     </row>
-    <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
+      <c r="S20" s="120"/>
       <c r="T20" s="28"/>
-      <c r="U20" s="55"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="55"/>
     </row>
-    <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27">
         <v>3</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="27">
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27">
         <v>4</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="O21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="45"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="45"/>
+      <c r="S21" s="119"/>
       <c r="T21" s="45"/>
-      <c r="U21" s="55"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="55"/>
     </row>
-    <row r="22" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="70"/>
-      <c r="S22" s="28"/>
-      <c r="U22" s="44"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="70"/>
+      <c r="S22" s="51"/>
+      <c r="V22" s="124"/>
+      <c r="X22" s="44"/>
     </row>
-    <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="27">
+      <c r="K23" s="54"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27">
         <v>5</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="O23" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="111"/>
+      <c r="S23" s="119"/>
       <c r="T23" s="45"/>
-      <c r="U23" s="55"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="55"/>
     </row>
-    <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -7880,511 +7216,569 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="53"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="70"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="70"/>
       <c r="P24" s="85"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="85"/>
-      <c r="S24" s="112"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="85"/>
-      <c r="U24" s="86"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="86"/>
     </row>
-    <row r="25" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="186" t="s">
+    <row r="25" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="186" t="s">
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="192"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="186" t="s">
+      <c r="Q25" s="192"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="188"/>
+      <c r="U25" s="192"/>
+      <c r="V25" s="192"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="193"/>
     </row>
-    <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>1</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="I26" s="39"/>
+      <c r="J26" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="113" t="s">
+      <c r="K26" s="70"/>
+      <c r="P26" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="M26" s="114" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="114" t="s">
-        <v>103</v>
-      </c>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="176"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" s="180"/>
+      <c r="V26" s="180"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="181"/>
     </row>
-    <row r="27" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="56"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="M27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="175"/>
-      <c r="U27" s="176"/>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="122"/>
+      <c r="F27" s="220" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="56"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
+      <c r="P27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="180"/>
+      <c r="X27" s="181"/>
     </row>
-    <row r="28" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
+      <c r="D28" s="32">
+        <v>2</v>
+      </c>
+      <c r="E28" s="122"/>
+      <c r="F28" s="220" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="176"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="179"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="U28" s="180"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="180"/>
+      <c r="X28" s="181"/>
     </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
+      <c r="D29" s="32">
+        <v>3</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="220" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="176"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="181"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="122"/>
+      <c r="H30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="189" t="s">
-        <v>112</v>
-      </c>
-      <c r="O30" s="189"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="S30" s="189" t="s">
-        <v>112</v>
-      </c>
-      <c r="T30" s="189"/>
-      <c r="U30" s="190"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="V30" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="W30" s="194"/>
+      <c r="X30" s="195"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="175"/>
-      <c r="U31" s="176"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="U31" s="180"/>
+      <c r="V31" s="180"/>
+      <c r="W31" s="180"/>
+      <c r="X31" s="181"/>
     </row>
-    <row r="32" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="59"/>
       <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="85"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="N32" s="191" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" s="192"/>
-      <c r="P32" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="194"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" s="216" t="s">
+        <v>109</v>
+      </c>
+      <c r="R32" s="217"/>
+      <c r="S32" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="T32" s="218"/>
+      <c r="U32" s="218"/>
+      <c r="V32" s="218"/>
+      <c r="W32" s="218"/>
+      <c r="X32" s="219"/>
     </row>
-    <row r="33" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="186" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="195"/>
-      <c r="N33" s="196"/>
-      <c r="O33" s="197"/>
+    <row r="33" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="193"/>
       <c r="P33" s="196"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="201"/>
       <c r="U33" s="201"/>
+      <c r="V33" s="201"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="202"/>
     </row>
-    <row r="34" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="204"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="205"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="199"/>
-      <c r="P34" s="198"/>
-      <c r="Q34" s="202"/>
-      <c r="R34" s="202"/>
-      <c r="S34" s="202"/>
-      <c r="T34" s="202"/>
+    <row r="34" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="205"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="207"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="199"/>
+      <c r="R34" s="200"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="203"/>
       <c r="U34" s="203"/>
+      <c r="V34" s="203"/>
+      <c r="W34" s="203"/>
+      <c r="X34" s="204"/>
     </row>
-    <row r="35" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="204"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="196"/>
-      <c r="O35" s="197"/>
+    <row r="35" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="207"/>
       <c r="P35" s="196"/>
-      <c r="Q35" s="200"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="200"/>
-      <c r="T35" s="200"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="201"/>
       <c r="U35" s="201"/>
+      <c r="V35" s="201"/>
+      <c r="W35" s="201"/>
+      <c r="X35" s="202"/>
     </row>
-    <row r="36" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="204"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="198"/>
-      <c r="O36" s="199"/>
-      <c r="P36" s="198"/>
-      <c r="Q36" s="202"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="202"/>
-      <c r="T36" s="202"/>
+    <row r="36" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="205"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="206"/>
+      <c r="K36" s="206"/>
+      <c r="L36" s="206"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="206"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="196"/>
+      <c r="Q36" s="199"/>
+      <c r="R36" s="200"/>
+      <c r="S36" s="199"/>
+      <c r="T36" s="203"/>
       <c r="U36" s="203"/>
+      <c r="V36" s="203"/>
+      <c r="W36" s="203"/>
+      <c r="X36" s="204"/>
     </row>
-    <row r="37" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="204"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="195"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="197"/>
+    <row r="37" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="205"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="207"/>
       <c r="P37" s="196"/>
-      <c r="Q37" s="200"/>
-      <c r="R37" s="200"/>
-      <c r="S37" s="200"/>
-      <c r="T37" s="200"/>
+      <c r="Q37" s="197"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="201"/>
       <c r="U37" s="201"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="202"/>
     </row>
-    <row r="38" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="204"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="195"/>
-      <c r="N38" s="198"/>
-      <c r="O38" s="199"/>
-      <c r="P38" s="198"/>
-      <c r="Q38" s="202"/>
-      <c r="R38" s="202"/>
-      <c r="S38" s="202"/>
-      <c r="T38" s="202"/>
+    <row r="38" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="205"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="206"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="206"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="196"/>
+      <c r="Q38" s="199"/>
+      <c r="R38" s="200"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="203"/>
       <c r="U38" s="203"/>
+      <c r="V38" s="203"/>
+      <c r="W38" s="203"/>
+      <c r="X38" s="204"/>
     </row>
-    <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="204"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="197"/>
+    <row r="39" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="205"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="207"/>
       <c r="P39" s="196"/>
-      <c r="Q39" s="200"/>
-      <c r="R39" s="200"/>
-      <c r="S39" s="200"/>
-      <c r="T39" s="200"/>
+      <c r="Q39" s="197"/>
+      <c r="R39" s="198"/>
+      <c r="S39" s="197"/>
+      <c r="T39" s="201"/>
       <c r="U39" s="201"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201"/>
+      <c r="X39" s="202"/>
     </row>
-    <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="204"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="205"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="199"/>
-      <c r="P40" s="198"/>
-      <c r="Q40" s="202"/>
-      <c r="R40" s="202"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="202"/>
+    <row r="40" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="205"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="206"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="196"/>
+      <c r="Q40" s="199"/>
+      <c r="R40" s="200"/>
+      <c r="S40" s="199"/>
+      <c r="T40" s="203"/>
       <c r="U40" s="203"/>
+      <c r="V40" s="203"/>
+      <c r="W40" s="203"/>
+      <c r="X40" s="204"/>
     </row>
-    <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="204"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="196"/>
-      <c r="O41" s="197"/>
+    <row r="41" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="205"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="206"/>
+      <c r="M41" s="206"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="207"/>
       <c r="P41" s="196"/>
-      <c r="Q41" s="200"/>
-      <c r="R41" s="200"/>
-      <c r="S41" s="200"/>
-      <c r="T41" s="200"/>
+      <c r="Q41" s="197"/>
+      <c r="R41" s="198"/>
+      <c r="S41" s="197"/>
+      <c r="T41" s="201"/>
       <c r="U41" s="201"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201"/>
+      <c r="X41" s="202"/>
     </row>
-    <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="206"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="207"/>
-      <c r="L42" s="208"/>
+    <row r="42" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="208"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="209"/>
       <c r="M42" s="209"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="210"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="210"/>
+      <c r="P42" s="211"/>
       <c r="Q42" s="212"/>
-      <c r="R42" s="212"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="212"/>
-      <c r="T42" s="212"/>
-      <c r="U42" s="213"/>
+      <c r="T42" s="214"/>
+      <c r="U42" s="214"/>
+      <c r="V42" s="214"/>
+      <c r="W42" s="214"/>
+      <c r="X42" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:U40"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:O34"/>
-    <mergeCell ref="P33:U34"/>
-    <mergeCell ref="B34:L42"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:O36"/>
-    <mergeCell ref="P35:U36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:O42"/>
-    <mergeCell ref="P41:U42"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="P37:U38"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="S39:X40"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S33:X34"/>
+    <mergeCell ref="B34:O42"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="S35:X36"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:X42"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="S37:X38"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="V13:W14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="U26:X26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="QA1a (Niah)" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1462,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1669,23 +1672,45 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1705,26 +1730,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2364,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:AH50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
@@ -4305,41 +4323,41 @@
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="168" t="str">
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="169" t="str">
         <f>'[1]Form B OLD'!J1</f>
         <v>(Project Name and Package Number)</v>
       </c>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="170"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="172" t="s">
+      <c r="Z10" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="174" t="s">
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="174"/>
       <c r="AF10" s="6" t="s">
         <v>3</v>
       </c>
@@ -4350,147 +4368,147 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="171"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="172"/>
       <c r="Y11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="177"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="177"/>
-      <c r="AF11" s="142"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="143"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
     <row r="12" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="147" t="s">
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="149"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="177"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="142"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="179"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="178"/>
+      <c r="AF12" s="143"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
     </row>
     <row r="13" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="151"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="148"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="149"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="177"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="142"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="179"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="143"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="150"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="151"/>
       <c r="Y14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="177"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="177"/>
-      <c r="AF14" s="142"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="179"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="178"/>
+      <c r="AF14" s="143"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
     </row>
@@ -4500,41 +4518,41 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="137" t="s">
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="141"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="142"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="137" t="s">
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="156"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="157"/>
       <c r="Y15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="159"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="158"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="158"/>
+      <c r="AB15" s="159"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="158"/>
+      <c r="AE15" s="159"/>
       <c r="AF15" s="21"/>
     </row>
     <row r="16" spans="2:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4594,10 +4612,10 @@
       <c r="J17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="133" t="s">
+      <c r="K17" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="134"/>
+      <c r="L17" s="135"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
@@ -4631,8 +4649,8 @@
       <c r="J18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="35">
         <v>1</v>
       </c>
@@ -4687,8 +4705,8 @@
       <c r="H19" s="45"/>
       <c r="I19" s="28"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="137"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
@@ -4723,8 +4741,8 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="137"/>
       <c r="M20" s="49">
         <v>2</v>
       </c>
@@ -4777,8 +4795,8 @@
       <c r="H21" s="54"/>
       <c r="I21" s="28"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="137"/>
       <c r="M21" s="49"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
@@ -4813,8 +4831,8 @@
       <c r="H22" s="54"/>
       <c r="I22" s="28"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="35">
         <v>3</v>
       </c>
@@ -4870,8 +4888,8 @@
       <c r="H23" s="54"/>
       <c r="I23" s="28"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="35"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
@@ -5046,10 +5064,10 @@
     </row>
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="70"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="51"/>
       <c r="F28" s="71" t="s">
         <v>50</v>
@@ -5057,10 +5075,10 @@
       <c r="H28" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="139" t="s">
+      <c r="J28" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="139"/>
+      <c r="K28" s="140"/>
       <c r="L28" s="72" t="s">
         <v>21</v>
       </c>
@@ -5107,15 +5125,15 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="28"/>
       <c r="F29" s="45"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
       <c r="L29" s="73"/>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
@@ -5142,15 +5160,15 @@
       <c r="B30" s="27">
         <v>2</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="28"/>
       <c r="F30" s="45"/>
       <c r="G30" s="28"/>
       <c r="H30" s="53"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
       <c r="L30" s="73"/>
       <c r="M30" s="35">
         <v>7</v>
@@ -5195,15 +5213,15 @@
       <c r="B31" s="27">
         <v>3</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="53"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
       <c r="L31" s="73"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -5220,15 +5238,15 @@
       <c r="B32" s="27">
         <v>4</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="28"/>
       <c r="F32" s="54"/>
       <c r="G32" s="28"/>
       <c r="H32" s="54"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
       <c r="L32" s="73"/>
       <c r="M32" s="49">
         <v>8</v>
@@ -5266,15 +5284,15 @@
       <c r="B33" s="27">
         <v>5</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="28"/>
       <c r="F33" s="54"/>
       <c r="G33" s="28"/>
       <c r="H33" s="54"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
       <c r="L33" s="73"/>
       <c r="AF33" s="44"/>
     </row>
@@ -5282,15 +5300,15 @@
       <c r="B34" s="27">
         <v>6</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="28"/>
       <c r="F34" s="54"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
       <c r="L34" s="73"/>
       <c r="AF34" s="44"/>
     </row>
@@ -5298,15 +5316,15 @@
       <c r="B35" s="27">
         <v>7</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="28"/>
       <c r="F35" s="54"/>
       <c r="G35" s="28"/>
       <c r="H35" s="54"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
       <c r="L35" s="73"/>
       <c r="M35" s="75"/>
       <c r="N35" s="76"/>
@@ -5332,15 +5350,15 @@
       <c r="B36" s="27">
         <v>8</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="54"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
       <c r="L36" s="73"/>
       <c r="M36" s="31"/>
       <c r="N36" s="70"/>
@@ -5425,12 +5443,12 @@
     </row>
     <row r="40" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27"/>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="133"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="133" t="s">
+      <c r="F40" s="134" t="s">
         <v>62</v>
       </c>
       <c r="H40" s="28"/>
@@ -5439,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="28"/>
-      <c r="L40" s="134" t="s">
+      <c r="L40" s="135" t="s">
         <v>21</v>
       </c>
       <c r="M40" s="27"/>
@@ -5463,17 +5481,17 @@
     </row>
     <row r="41" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="133"/>
+      <c r="F41" s="134"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="29" t="s">
         <v>63</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="L41" s="134"/>
+      <c r="L41" s="135"/>
       <c r="M41" s="75">
         <v>1</v>
       </c>
@@ -5483,19 +5501,19 @@
       <c r="P41" s="92"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="127"/>
+      <c r="U41" s="127"/>
       <c r="V41" s="93"/>
       <c r="W41" s="93"/>
-      <c r="X41" s="127"/>
-      <c r="Y41" s="127"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="127"/>
-      <c r="AE41" s="127"/>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="128"/>
+      <c r="Z41" s="128"/>
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="128"/>
+      <c r="AC41" s="128"/>
+      <c r="AD41" s="128"/>
+      <c r="AE41" s="128"/>
       <c r="AF41" s="44"/>
     </row>
     <row r="42" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5521,22 +5539,22 @@
       <c r="U42" s="28"/>
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="125"/>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="125"/>
-      <c r="AD42" s="125"/>
-      <c r="AE42" s="125"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="126"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
       <c r="AF42" s="44"/>
     </row>
     <row r="43" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27">
         <v>1</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -5551,46 +5569,46 @@
       <c r="N43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="127"/>
       <c r="V43" s="71"/>
-      <c r="X43" s="127"/>
-      <c r="Y43" s="127"/>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="127"/>
-      <c r="AB43" s="127"/>
-      <c r="AC43" s="127"/>
-      <c r="AD43" s="127"/>
-      <c r="AE43" s="127"/>
+      <c r="X43" s="128"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128"/>
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="128"/>
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="128"/>
       <c r="AF43" s="44"/>
     </row>
     <row r="44" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="70">
         <v>2</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
       <c r="F44" s="54"/>
       <c r="J44" s="31"/>
       <c r="L44" s="55"/>
       <c r="M44" s="94"/>
-      <c r="X44" s="125"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="125"/>
-      <c r="AA44" s="125"/>
-      <c r="AB44" s="125"/>
-      <c r="AC44" s="125"/>
-      <c r="AD44" s="125"/>
-      <c r="AE44" s="125"/>
+      <c r="X44" s="126"/>
+      <c r="Y44" s="126"/>
+      <c r="Z44" s="126"/>
+      <c r="AA44" s="126"/>
+      <c r="AB44" s="126"/>
+      <c r="AC44" s="126"/>
+      <c r="AD44" s="126"/>
+      <c r="AE44" s="126"/>
       <c r="AF44" s="44"/>
     </row>
     <row r="45" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="70">
         <v>3</v>
       </c>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
       <c r="F45" s="28"/>
       <c r="J45" s="31"/>
       <c r="L45" s="95"/>
@@ -5600,46 +5618,46 @@
       <c r="N45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="126"/>
-      <c r="T45" s="126"/>
-      <c r="U45" s="126"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
       <c r="V45" s="71"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
-      <c r="AC45" s="127"/>
-      <c r="AD45" s="127"/>
-      <c r="AE45" s="127"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="128"/>
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="128"/>
+      <c r="AC45" s="128"/>
+      <c r="AD45" s="128"/>
+      <c r="AE45" s="128"/>
       <c r="AF45" s="44"/>
     </row>
     <row r="46" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27">
         <v>4</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
       <c r="F46" s="54"/>
       <c r="J46" s="31"/>
       <c r="L46" s="55"/>
       <c r="M46" s="94"/>
-      <c r="X46" s="125"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="125"/>
-      <c r="AA46" s="125"/>
-      <c r="AB46" s="125"/>
-      <c r="AC46" s="125"/>
-      <c r="AD46" s="125"/>
-      <c r="AE46" s="125"/>
+      <c r="X46" s="126"/>
+      <c r="Y46" s="126"/>
+      <c r="Z46" s="126"/>
+      <c r="AA46" s="126"/>
+      <c r="AB46" s="126"/>
+      <c r="AC46" s="126"/>
+      <c r="AD46" s="126"/>
+      <c r="AE46" s="126"/>
       <c r="AF46" s="44"/>
     </row>
     <row r="47" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27">
         <v>5</v>
       </c>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
       <c r="F47" s="28"/>
       <c r="J47" s="31"/>
       <c r="L47" s="95"/>
@@ -5649,18 +5667,18 @@
       <c r="N47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S47" s="126"/>
-      <c r="T47" s="126"/>
-      <c r="U47" s="126"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
       <c r="V47" s="71"/>
-      <c r="X47" s="127"/>
-      <c r="Y47" s="127"/>
-      <c r="Z47" s="127"/>
-      <c r="AA47" s="127"/>
-      <c r="AB47" s="127"/>
-      <c r="AC47" s="127"/>
-      <c r="AD47" s="127"/>
-      <c r="AE47" s="127"/>
+      <c r="X47" s="128"/>
+      <c r="Y47" s="128"/>
+      <c r="Z47" s="128"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="128"/>
+      <c r="AC47" s="128"/>
+      <c r="AD47" s="128"/>
+      <c r="AE47" s="128"/>
       <c r="AF47" s="44"/>
     </row>
     <row r="48" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,14 +5687,14 @@
       <c r="J48" s="31"/>
       <c r="L48" s="44"/>
       <c r="M48" s="94"/>
-      <c r="X48" s="125"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="125"/>
-      <c r="AA48" s="125"/>
-      <c r="AB48" s="125"/>
-      <c r="AC48" s="125"/>
-      <c r="AD48" s="125"/>
-      <c r="AE48" s="125"/>
+      <c r="X48" s="126"/>
+      <c r="Y48" s="126"/>
+      <c r="Z48" s="126"/>
+      <c r="AA48" s="126"/>
+      <c r="AB48" s="126"/>
+      <c r="AC48" s="126"/>
+      <c r="AD48" s="126"/>
+      <c r="AE48" s="126"/>
       <c r="AF48" s="44"/>
     </row>
     <row r="49" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,18 +5715,18 @@
       <c r="N49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S49" s="126"/>
-      <c r="T49" s="126"/>
-      <c r="U49" s="126"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
       <c r="V49" s="71"/>
-      <c r="X49" s="127"/>
-      <c r="Y49" s="127"/>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="127"/>
-      <c r="AC49" s="127"/>
-      <c r="AD49" s="127"/>
-      <c r="AE49" s="127"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="128"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="128"/>
+      <c r="AC49" s="128"/>
+      <c r="AD49" s="128"/>
+      <c r="AE49" s="128"/>
       <c r="AF49" s="44"/>
     </row>
     <row r="50" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5828,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6810,44 +6828,44 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
       <c r="U10" s="101"/>
       <c r="V10" s="102"/>
-      <c r="W10" s="184" t="s">
+      <c r="W10" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="185"/>
+      <c r="X10" s="186"/>
     </row>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="103"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
       <c r="K11" s="105"/>
       <c r="L11" s="106"/>
       <c r="M11" s="106"/>
@@ -6860,8 +6878,8 @@
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
       <c r="V11" s="107"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="188"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
@@ -6904,10 +6922,10 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="189" t="s">
+      <c r="K13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="189"/>
+      <c r="L13" s="190"/>
       <c r="M13" s="31"/>
       <c r="N13" s="27"/>
       <c r="O13" s="28"/>
@@ -6916,15 +6934,15 @@
         <v>76</v>
       </c>
       <c r="R13" s="93"/>
-      <c r="S13" s="189" t="s">
+      <c r="S13" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="T13" s="189"/>
+      <c r="T13" s="190"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="133" t="s">
+      <c r="V13" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="133"/>
+      <c r="W13" s="134"/>
       <c r="X13" s="108"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6954,13 +6972,13 @@
         <v>63</v>
       </c>
       <c r="R14" s="93"/>
-      <c r="S14" s="190" t="s">
+      <c r="S14" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="190"/>
+      <c r="T14" s="191"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
       <c r="X14" s="108"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7233,35 +7251,35 @@
       <c r="X24" s="86"/>
     </row>
     <row r="25" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="191" t="s">
+      <c r="B25" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="191" t="s">
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="191" t="s">
+      <c r="Q25" s="193"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="U25" s="192"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="194"/>
     </row>
     <row r="26" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
@@ -7278,16 +7296,16 @@
       <c r="P26" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
       <c r="T26" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="U26" s="180"/>
-      <c r="V26" s="180"/>
-      <c r="W26" s="180"/>
-      <c r="X26" s="181"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="181"/>
+      <c r="X26" s="182"/>
     </row>
     <row r="27" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="122"/>
-      <c r="F27" s="220" t="s">
+      <c r="F27" s="125" t="s">
         <v>112</v>
       </c>
       <c r="G27" s="39"/>
@@ -7304,14 +7322,14 @@
       <c r="I27" s="39"/>
       <c r="J27" s="114"/>
       <c r="K27" s="56"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
       <c r="P27" s="70"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="182"/>
     </row>
     <row r="28" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27"/>
@@ -7320,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="122"/>
-      <c r="F28" s="220" t="s">
+      <c r="F28" s="125" t="s">
         <v>113</v>
       </c>
       <c r="G28" s="39"/>
@@ -7329,22 +7347,22 @@
       <c r="J28" s="115"/>
       <c r="K28" s="56"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
       <c r="O28" s="28"/>
       <c r="P28" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
       <c r="T28" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="U28" s="180"/>
-      <c r="V28" s="180"/>
-      <c r="W28" s="180"/>
-      <c r="X28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="182"/>
     </row>
     <row r="29" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
@@ -7353,7 +7371,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="122"/>
-      <c r="F29" s="220" t="s">
+      <c r="F29" s="125" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="39"/>
@@ -7362,22 +7380,22 @@
       <c r="J29" s="115"/>
       <c r="K29" s="56"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
       <c r="O29" s="28"/>
       <c r="P29" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
       <c r="T29" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="182"/>
     </row>
     <row r="30" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
@@ -7395,25 +7413,25 @@
       <c r="J30" s="115"/>
       <c r="K30" s="56"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
       <c r="O30" s="28"/>
       <c r="P30" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="Q30" s="194" t="s">
+      <c r="Q30" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="R30" s="194"/>
-      <c r="S30" s="194"/>
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
       <c r="T30" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="V30" s="194" t="s">
+      <c r="V30" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="W30" s="194"/>
-      <c r="X30" s="195"/>
+      <c r="W30" s="202"/>
+      <c r="X30" s="203"/>
     </row>
     <row r="31" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
@@ -7429,22 +7447,22 @@
       <c r="J31" s="115"/>
       <c r="K31" s="56"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
       <c r="O31" s="28"/>
       <c r="P31" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
       <c r="T31" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="U31" s="180"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="182"/>
     </row>
     <row r="32" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="59"/>
@@ -7466,280 +7484,273 @@
       <c r="P32" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="Q32" s="216" t="s">
+      <c r="Q32" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="R32" s="217"/>
-      <c r="S32" s="216" t="s">
+      <c r="R32" s="205"/>
+      <c r="S32" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="T32" s="218"/>
-      <c r="U32" s="218"/>
-      <c r="V32" s="218"/>
-      <c r="W32" s="218"/>
-      <c r="X32" s="219"/>
+      <c r="T32" s="206"/>
+      <c r="U32" s="206"/>
+      <c r="V32" s="206"/>
+      <c r="W32" s="206"/>
+      <c r="X32" s="207"/>
     </row>
     <row r="33" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="191" t="s">
+      <c r="B33" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="196"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="198"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="201"/>
-      <c r="U33" s="201"/>
-      <c r="V33" s="201"/>
-      <c r="W33" s="201"/>
-      <c r="X33" s="202"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="193"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="195"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="196"/>
     </row>
     <row r="34" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="205"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="199"/>
-      <c r="R34" s="200"/>
-      <c r="S34" s="199"/>
-      <c r="T34" s="203"/>
-      <c r="U34" s="203"/>
-      <c r="V34" s="203"/>
-      <c r="W34" s="203"/>
-      <c r="X34" s="204"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="209"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="209"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="210"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="198"/>
     </row>
     <row r="35" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="206"/>
-      <c r="L35" s="206"/>
-      <c r="M35" s="206"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="207"/>
-      <c r="P35" s="196"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="198"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="201"/>
-      <c r="U35" s="201"/>
-      <c r="V35" s="201"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="202"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="209"/>
+      <c r="N35" s="209"/>
+      <c r="O35" s="210"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="196"/>
     </row>
     <row r="36" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="206"/>
-      <c r="L36" s="206"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="196"/>
-      <c r="Q36" s="199"/>
-      <c r="R36" s="200"/>
-      <c r="S36" s="199"/>
-      <c r="T36" s="203"/>
-      <c r="U36" s="203"/>
-      <c r="V36" s="203"/>
-      <c r="W36" s="203"/>
-      <c r="X36" s="204"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="209"/>
+      <c r="M36" s="209"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="210"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="197"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="198"/>
     </row>
     <row r="37" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="207"/>
-      <c r="P37" s="196"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="198"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="201"/>
-      <c r="U37" s="201"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="202"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="209"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="209"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="209"/>
+      <c r="M37" s="209"/>
+      <c r="N37" s="209"/>
+      <c r="O37" s="210"/>
+      <c r="P37" s="199"/>
+      <c r="Q37" s="195"/>
+      <c r="R37" s="200"/>
+      <c r="S37" s="195"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="196"/>
     </row>
     <row r="38" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="205"/>
-      <c r="C38" s="206"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="206"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="196"/>
-      <c r="Q38" s="199"/>
-      <c r="R38" s="200"/>
-      <c r="S38" s="199"/>
-      <c r="T38" s="203"/>
-      <c r="U38" s="203"/>
-      <c r="V38" s="203"/>
-      <c r="W38" s="203"/>
-      <c r="X38" s="204"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="209"/>
+      <c r="M38" s="209"/>
+      <c r="N38" s="209"/>
+      <c r="O38" s="210"/>
+      <c r="P38" s="199"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="201"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="198"/>
     </row>
     <row r="39" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="205"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="206"/>
-      <c r="O39" s="207"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="198"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="201"/>
-      <c r="U39" s="201"/>
-      <c r="V39" s="201"/>
-      <c r="W39" s="201"/>
-      <c r="X39" s="202"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
+      <c r="M39" s="209"/>
+      <c r="N39" s="209"/>
+      <c r="O39" s="210"/>
+      <c r="P39" s="199"/>
+      <c r="Q39" s="195"/>
+      <c r="R39" s="200"/>
+      <c r="S39" s="195"/>
+      <c r="T39" s="132"/>
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="132"/>
+      <c r="X39" s="196"/>
     </row>
     <row r="40" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="205"/>
-      <c r="C40" s="206"/>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="206"/>
-      <c r="L40" s="206"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="207"/>
-      <c r="P40" s="196"/>
-      <c r="Q40" s="199"/>
-      <c r="R40" s="200"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="203"/>
-      <c r="U40" s="203"/>
-      <c r="V40" s="203"/>
-      <c r="W40" s="203"/>
-      <c r="X40" s="204"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="209"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="209"/>
+      <c r="M40" s="209"/>
+      <c r="N40" s="209"/>
+      <c r="O40" s="210"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="197"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="198"/>
     </row>
     <row r="41" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="205"/>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="206"/>
-      <c r="K41" s="206"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="207"/>
-      <c r="P41" s="196"/>
-      <c r="Q41" s="197"/>
-      <c r="R41" s="198"/>
-      <c r="S41" s="197"/>
-      <c r="T41" s="201"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="201"/>
-      <c r="X41" s="202"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="209"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="209"/>
+      <c r="O41" s="210"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="195"/>
+      <c r="R41" s="200"/>
+      <c r="S41" s="195"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="196"/>
     </row>
     <row r="42" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="208"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="209"/>
-      <c r="H42" s="209"/>
-      <c r="I42" s="209"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="209"/>
-      <c r="M42" s="209"/>
-      <c r="N42" s="209"/>
-      <c r="O42" s="210"/>
-      <c r="P42" s="211"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="212"/>
-      <c r="T42" s="214"/>
-      <c r="U42" s="214"/>
-      <c r="V42" s="214"/>
-      <c r="W42" s="214"/>
-      <c r="X42" s="215"/>
+      <c r="B42" s="211"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="212"/>
+      <c r="N42" s="212"/>
+      <c r="O42" s="213"/>
+      <c r="P42" s="214"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="215"/>
+      <c r="T42" s="217"/>
+      <c r="U42" s="217"/>
+      <c r="V42" s="217"/>
+      <c r="W42" s="217"/>
+      <c r="X42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="S39:X40"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="S33:X34"/>
     <mergeCell ref="B34:O42"/>
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:R36"/>
@@ -7758,6 +7769,13 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="Q31:S31"/>
     <mergeCell ref="U31:X31"/>
+    <mergeCell ref="S39:X40"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S33:X34"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="U28:X28"/>
@@ -7787,6 +7805,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7795,7 +7819,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -7992,13 +8016,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F72D6E-F1E6-451F-B825-0462D5FF5E34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B10ADB-851A-4196-82E8-5B1678715D77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8006,7 +8041,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE32B7D-BA61-4B9B-A09C-55AF668ACE32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8023,21 +8058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F72D6E-F1E6-451F-B825-0462D5FF5E34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormQA1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA1a (Niah)" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1342,9 +1342,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1427,9 +1424,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1450,13 +1444,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,6 +1455,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1627,6 +1620,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,62 +1668,62 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2382,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4323,41 +4319,41 @@
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="169" t="str">
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="166" t="str">
         <f>'[1]Form B OLD'!J1</f>
         <v>(Project Name and Package Number)</v>
       </c>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="169"/>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="170"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="173" t="s">
+      <c r="Z10" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="175" t="s">
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="174"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="171"/>
       <c r="AF10" s="6" t="s">
         <v>3</v>
       </c>
@@ -4368,147 +4364,147 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="172"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="169"/>
       <c r="Y11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="179"/>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="143"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="140"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
     <row r="12" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="148" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="149"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="146"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="179"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="143"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="140"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
     </row>
     <row r="13" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="152"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="146"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="179"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="178"/>
-      <c r="AF13" s="143"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="140"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="151"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="148"/>
       <c r="Y14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="179"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="178"/>
-      <c r="AF14" s="143"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="176"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="140"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
     </row>
@@ -4518,41 +4514,41 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="138" t="s">
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="142"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="139"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="138" t="s">
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="157"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="154"/>
       <c r="Y15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="159"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="159"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="156"/>
       <c r="AF15" s="21"/>
     </row>
     <row r="16" spans="2:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4612,10 +4608,10 @@
       <c r="J17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="134" t="s">
+      <c r="K17" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="135"/>
+      <c r="L17" s="132"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
@@ -4649,8 +4645,8 @@
       <c r="J18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="35">
         <v>1</v>
       </c>
@@ -4705,8 +4701,8 @@
       <c r="H19" s="45"/>
       <c r="I19" s="28"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
@@ -4724,7 +4720,7 @@
       <c r="AA19" s="41"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="28"/>
-      <c r="AD19" s="100"/>
+      <c r="AD19" s="99"/>
       <c r="AF19" s="48"/>
     </row>
     <row r="20" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4741,8 +4737,8 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="137"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="49">
         <v>2</v>
       </c>
@@ -4778,7 +4774,7 @@
         <v>40</v>
       </c>
       <c r="AC20" s="28"/>
-      <c r="AD20" s="99"/>
+      <c r="AD20" s="98"/>
       <c r="AF20" s="52"/>
     </row>
     <row r="21" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4795,8 +4791,8 @@
       <c r="H21" s="54"/>
       <c r="I21" s="28"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="137"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="49"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
@@ -4831,8 +4827,8 @@
       <c r="H22" s="54"/>
       <c r="I22" s="28"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="137"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="35">
         <v>3</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>33</v>
       </c>
       <c r="AC22" s="28"/>
-      <c r="AD22" s="99"/>
+      <c r="AD22" s="98"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="55"/>
     </row>
@@ -4888,8 +4884,8 @@
       <c r="H23" s="54"/>
       <c r="I23" s="28"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
       <c r="M23" s="35"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
@@ -4958,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="AC24" s="28"/>
-      <c r="AD24" s="99"/>
+      <c r="AD24" s="98"/>
       <c r="AF24" s="52"/>
     </row>
     <row r="25" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5037,7 +5033,7 @@
         <v>33</v>
       </c>
       <c r="AC26" s="28"/>
-      <c r="AD26" s="99"/>
+      <c r="AD26" s="98"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="52"/>
     </row>
@@ -5064,10 +5060,10 @@
     </row>
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="70"/>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="140"/>
+      <c r="D28" s="137"/>
       <c r="E28" s="51"/>
       <c r="F28" s="71" t="s">
         <v>50</v>
@@ -5075,10 +5071,10 @@
       <c r="H28" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="140"/>
+      <c r="K28" s="137"/>
       <c r="L28" s="72" t="s">
         <v>21</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>33</v>
       </c>
       <c r="AC28" s="28"/>
-      <c r="AD28" s="99"/>
+      <c r="AD28" s="98"/>
       <c r="AE28" s="28"/>
       <c r="AF28" s="55"/>
     </row>
@@ -5125,16 +5121,16 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="28"/>
       <c r="F29" s="45"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="73"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="122"/>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
@@ -5160,16 +5156,16 @@
       <c r="B30" s="27">
         <v>2</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="28"/>
       <c r="F30" s="45"/>
       <c r="G30" s="28"/>
       <c r="H30" s="53"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="73"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="122"/>
       <c r="M30" s="35">
         <v>7</v>
       </c>
@@ -5178,7 +5174,7 @@
       </c>
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
-      <c r="Q30" s="74" t="s">
+      <c r="Q30" s="73" t="s">
         <v>26</v>
       </c>
       <c r="R30" s="39" t="s">
@@ -5205,7 +5201,7 @@
         <v>33</v>
       </c>
       <c r="AC30" s="28"/>
-      <c r="AD30" s="99"/>
+      <c r="AD30" s="98"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="55"/>
     </row>
@@ -5213,16 +5209,16 @@
       <c r="B31" s="27">
         <v>3</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="53"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="73"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="122"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
       <c r="O31" s="62"/>
@@ -5238,16 +5234,16 @@
       <c r="B32" s="27">
         <v>4</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="28"/>
       <c r="F32" s="54"/>
       <c r="G32" s="28"/>
       <c r="H32" s="54"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="73"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="122"/>
       <c r="M32" s="49">
         <v>8</v>
       </c>
@@ -5256,7 +5252,7 @@
       </c>
       <c r="O32" s="36"/>
       <c r="P32" s="39"/>
-      <c r="Q32" s="74" t="s">
+      <c r="Q32" s="73" t="s">
         <v>26</v>
       </c>
       <c r="R32" s="39" t="s">
@@ -5284,54 +5280,54 @@
       <c r="B33" s="27">
         <v>5</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="28"/>
       <c r="F33" s="54"/>
       <c r="G33" s="28"/>
       <c r="H33" s="54"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="73"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="122"/>
       <c r="AF33" s="44"/>
     </row>
     <row r="34" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>6</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
       <c r="E34" s="28"/>
       <c r="F34" s="54"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="73"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="122"/>
       <c r="AF34" s="44"/>
     </row>
     <row r="35" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27">
         <v>7</v>
       </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
       <c r="E35" s="28"/>
       <c r="F35" s="54"/>
       <c r="G35" s="28"/>
       <c r="H35" s="54"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="80"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="79"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
       <c r="U35" s="31"/>
@@ -5350,16 +5346,16 @@
       <c r="B36" s="27">
         <v>8</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="54"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="73"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="122"/>
       <c r="M36" s="31"/>
       <c r="N36" s="70"/>
       <c r="R36" s="44"/>
@@ -5367,21 +5363,21 @@
     </row>
     <row r="37" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="28"/>
       <c r="F37" s="53"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="82"/>
+      <c r="J37" s="81"/>
       <c r="K37" s="39"/>
-      <c r="L37" s="83"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="86"/>
+      <c r="L37" s="82"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="85"/>
       <c r="AF37" s="44"/>
     </row>
     <row r="38" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5394,12 +5390,12 @@
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
       <c r="J38" s="60"/>
-      <c r="K38" s="87"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="61"/>
-      <c r="M38" s="84"/>
-      <c r="U38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
+      <c r="M38" s="83"/>
+      <c r="U38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
       <c r="AF38" s="44"/>
     </row>
     <row r="39" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5423,7 +5419,7 @@
         <v>61</v>
       </c>
       <c r="O39" s="65"/>
-      <c r="P39" s="88"/>
+      <c r="P39" s="87"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
       <c r="S39" s="66"/>
@@ -5431,7 +5427,7 @@
       <c r="U39" s="66"/>
       <c r="V39" s="66"/>
       <c r="W39" s="66"/>
-      <c r="X39" s="89"/>
+      <c r="X39" s="88"/>
       <c r="Y39" s="66"/>
       <c r="Z39" s="66"/>
       <c r="AA39" s="66"/>
@@ -5443,12 +5439,12 @@
     </row>
     <row r="40" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27"/>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="134"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="134" t="s">
+      <c r="F40" s="131" t="s">
         <v>62</v>
       </c>
       <c r="H40" s="28"/>
@@ -5457,7 +5453,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="28"/>
-      <c r="L40" s="135" t="s">
+      <c r="L40" s="132" t="s">
         <v>21</v>
       </c>
       <c r="M40" s="27"/>
@@ -5471,49 +5467,49 @@
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
-      <c r="X40" s="90" t="s">
+      <c r="X40" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="91"/>
-      <c r="AC40" s="91"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AC40" s="90"/>
       <c r="AF40" s="44"/>
     </row>
     <row r="41" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="134"/>
+      <c r="F41" s="131"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="29" t="s">
         <v>63</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="75">
+      <c r="L41" s="132"/>
+      <c r="M41" s="74">
         <v>1</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="92"/>
+      <c r="P41" s="91"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="124"/>
+      <c r="U41" s="124"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="125"/>
+      <c r="Y41" s="125"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="125"/>
+      <c r="AB41" s="125"/>
+      <c r="AC41" s="125"/>
+      <c r="AD41" s="125"/>
+      <c r="AE41" s="125"/>
       <c r="AF41" s="44"/>
     </row>
     <row r="42" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5528,7 +5524,7 @@
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="75"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
       <c r="P42" s="32"/>
@@ -5539,22 +5535,22 @@
       <c r="U42" s="28"/>
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
+      <c r="X42" s="123"/>
+      <c r="Y42" s="123"/>
+      <c r="Z42" s="123"/>
+      <c r="AA42" s="123"/>
+      <c r="AB42" s="123"/>
+      <c r="AC42" s="123"/>
+      <c r="AD42" s="123"/>
+      <c r="AE42" s="123"/>
       <c r="AF42" s="44"/>
     </row>
     <row r="43" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27">
         <v>1</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -5563,122 +5559,122 @@
       <c r="J43" s="31"/>
       <c r="K43" s="28"/>
       <c r="L43" s="52"/>
-      <c r="M43" s="94">
+      <c r="M43" s="93">
         <v>2</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="127"/>
-      <c r="T43" s="127"/>
-      <c r="U43" s="127"/>
+      <c r="S43" s="124"/>
+      <c r="T43" s="124"/>
+      <c r="U43" s="124"/>
       <c r="V43" s="71"/>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128"/>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="125"/>
+      <c r="AB43" s="125"/>
+      <c r="AC43" s="125"/>
+      <c r="AD43" s="125"/>
+      <c r="AE43" s="125"/>
       <c r="AF43" s="44"/>
     </row>
     <row r="44" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="70">
         <v>2</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
       <c r="F44" s="54"/>
       <c r="J44" s="31"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="94"/>
-      <c r="X44" s="126"/>
-      <c r="Y44" s="126"/>
-      <c r="Z44" s="126"/>
-      <c r="AA44" s="126"/>
-      <c r="AB44" s="126"/>
-      <c r="AC44" s="126"/>
-      <c r="AD44" s="126"/>
-      <c r="AE44" s="126"/>
+      <c r="M44" s="93"/>
+      <c r="X44" s="123"/>
+      <c r="Y44" s="123"/>
+      <c r="Z44" s="123"/>
+      <c r="AA44" s="123"/>
+      <c r="AB44" s="123"/>
+      <c r="AC44" s="123"/>
+      <c r="AD44" s="123"/>
+      <c r="AE44" s="123"/>
       <c r="AF44" s="44"/>
     </row>
     <row r="45" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="70">
         <v>3</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
       <c r="F45" s="28"/>
       <c r="J45" s="31"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="94">
+      <c r="L45" s="94"/>
+      <c r="M45" s="93">
         <v>3</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="124"/>
+      <c r="U45" s="124"/>
       <c r="V45" s="71"/>
-      <c r="X45" s="128"/>
-      <c r="Y45" s="128"/>
-      <c r="Z45" s="128"/>
-      <c r="AA45" s="128"/>
-      <c r="AB45" s="128"/>
-      <c r="AC45" s="128"/>
-      <c r="AD45" s="128"/>
-      <c r="AE45" s="128"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="125"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="125"/>
+      <c r="AB45" s="125"/>
+      <c r="AC45" s="125"/>
+      <c r="AD45" s="125"/>
+      <c r="AE45" s="125"/>
       <c r="AF45" s="44"/>
     </row>
     <row r="46" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27">
         <v>4</v>
       </c>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
       <c r="F46" s="54"/>
       <c r="J46" s="31"/>
       <c r="L46" s="55"/>
-      <c r="M46" s="94"/>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
-      <c r="AE46" s="126"/>
+      <c r="M46" s="93"/>
+      <c r="X46" s="123"/>
+      <c r="Y46" s="123"/>
+      <c r="Z46" s="123"/>
+      <c r="AA46" s="123"/>
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="123"/>
+      <c r="AD46" s="123"/>
+      <c r="AE46" s="123"/>
       <c r="AF46" s="44"/>
     </row>
     <row r="47" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27">
         <v>5</v>
       </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
       <c r="F47" s="28"/>
       <c r="J47" s="31"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="94">
+      <c r="L47" s="94"/>
+      <c r="M47" s="93">
         <v>4</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S47" s="127"/>
-      <c r="T47" s="127"/>
-      <c r="U47" s="127"/>
+      <c r="S47" s="124"/>
+      <c r="T47" s="124"/>
+      <c r="U47" s="124"/>
       <c r="V47" s="71"/>
-      <c r="X47" s="128"/>
-      <c r="Y47" s="128"/>
-      <c r="Z47" s="128"/>
-      <c r="AA47" s="128"/>
-      <c r="AB47" s="128"/>
-      <c r="AC47" s="128"/>
-      <c r="AD47" s="128"/>
-      <c r="AE47" s="128"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="125"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="125"/>
+      <c r="AB47" s="125"/>
+      <c r="AC47" s="125"/>
+      <c r="AD47" s="125"/>
+      <c r="AE47" s="125"/>
       <c r="AF47" s="44"/>
     </row>
     <row r="48" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5686,85 +5682,85 @@
       <c r="F48" s="47"/>
       <c r="J48" s="31"/>
       <c r="L48" s="44"/>
-      <c r="M48" s="94"/>
-      <c r="X48" s="126"/>
-      <c r="Y48" s="126"/>
-      <c r="Z48" s="126"/>
-      <c r="AA48" s="126"/>
-      <c r="AB48" s="126"/>
-      <c r="AC48" s="126"/>
-      <c r="AD48" s="126"/>
-      <c r="AE48" s="126"/>
+      <c r="M48" s="93"/>
+      <c r="X48" s="123"/>
+      <c r="Y48" s="123"/>
+      <c r="Z48" s="123"/>
+      <c r="AA48" s="123"/>
+      <c r="AB48" s="123"/>
+      <c r="AC48" s="123"/>
+      <c r="AD48" s="123"/>
+      <c r="AE48" s="123"/>
       <c r="AF48" s="44"/>
     </row>
     <row r="49" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="94">
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="93">
         <v>5</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="124"/>
+      <c r="U49" s="124"/>
       <c r="V49" s="71"/>
-      <c r="X49" s="128"/>
-      <c r="Y49" s="128"/>
-      <c r="Z49" s="128"/>
-      <c r="AA49" s="128"/>
-      <c r="AB49" s="128"/>
-      <c r="AC49" s="128"/>
-      <c r="AD49" s="128"/>
-      <c r="AE49" s="128"/>
+      <c r="X49" s="125"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="125"/>
+      <c r="AA49" s="125"/>
+      <c r="AB49" s="125"/>
+      <c r="AC49" s="125"/>
+      <c r="AD49" s="125"/>
+      <c r="AE49" s="125"/>
       <c r="AF49" s="44"/>
     </row>
     <row r="50" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97" t="s">
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="85"/>
-      <c r="X50" s="85"/>
-      <c r="Y50" s="85"/>
-      <c r="Z50" s="85"/>
-      <c r="AA50" s="85"/>
-      <c r="AB50" s="85"/>
-      <c r="AC50" s="85"/>
-      <c r="AD50" s="85"/>
-      <c r="AE50" s="85"/>
-      <c r="AF50" s="86"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84"/>
+      <c r="Y50" s="84"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -5846,8 +5842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6828,58 +6824,58 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="185" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="186"/>
+      <c r="X10" s="184"/>
     </row>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="188"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="186"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
@@ -6922,28 +6918,28 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="190" t="s">
+      <c r="K13" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="190"/>
+      <c r="L13" s="188"/>
       <c r="M13" s="31"/>
       <c r="N13" s="27"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
-      <c r="Q13" s="93" t="s">
+      <c r="Q13" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="190" t="s">
+      <c r="R13" s="92"/>
+      <c r="S13" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="T13" s="190"/>
+      <c r="T13" s="188"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="134" t="s">
+      <c r="V13" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="134"/>
-      <c r="X13" s="108"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="107"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
@@ -6953,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="122"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="28" t="s">
         <v>79</v>
       </c>
@@ -6968,24 +6964,24 @@
       <c r="N14" s="27"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="109" t="s">
+      <c r="Q14" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="93"/>
-      <c r="S14" s="191" t="s">
+      <c r="R14" s="92"/>
+      <c r="S14" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="191"/>
+      <c r="T14" s="189"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="108"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="107"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="122"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="28" t="s">
         <v>81</v>
       </c>
@@ -7006,18 +7002,18 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="45"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
       <c r="U15" s="28"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="45"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
       <c r="X15" s="55"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="122"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="28" t="s">
         <v>83</v>
       </c>
@@ -7031,14 +7027,14 @@
       <c r="M16" s="28"/>
       <c r="N16" s="70"/>
       <c r="S16" s="51"/>
-      <c r="V16" s="123"/>
+      <c r="V16" s="119"/>
       <c r="X16" s="44"/>
     </row>
     <row r="17" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="122"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="28" t="s">
         <v>84</v>
       </c>
@@ -7057,18 +7053,18 @@
       <c r="P17" s="28"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="45"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
       <c r="U17" s="28"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="45"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
       <c r="X17" s="55"/>
     </row>
     <row r="18" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="122"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="28" t="s">
         <v>86</v>
       </c>
@@ -7080,7 +7076,7 @@
       <c r="M18" s="28"/>
       <c r="N18" s="70"/>
       <c r="S18" s="51"/>
-      <c r="V18" s="123"/>
+      <c r="V18" s="119"/>
       <c r="X18" s="44"/>
     </row>
     <row r="19" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7091,7 +7087,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="122"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="28" t="s">
         <v>88</v>
       </c>
@@ -7110,18 +7106,18 @@
       <c r="P19" s="28"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="28"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="45"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="45"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
       <c r="X19" s="55"/>
     </row>
     <row r="20" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="28" t="s">
         <v>90</v>
       </c>
@@ -7136,10 +7132,10 @@
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
-      <c r="S20" s="120"/>
+      <c r="S20" s="117"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
-      <c r="V20" s="124"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="28"/>
       <c r="X20" s="55"/>
     </row>
@@ -7151,7 +7147,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="28" t="s">
         <v>92</v>
       </c>
@@ -7170,18 +7166,18 @@
       <c r="P21" s="28"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="45"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
       <c r="U21" s="28"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="45"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
       <c r="X21" s="55"/>
     </row>
     <row r="22" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="122"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="28" t="s">
         <v>94</v>
       </c>
@@ -7193,14 +7189,14 @@
       <c r="M22" s="28"/>
       <c r="N22" s="70"/>
       <c r="S22" s="51"/>
-      <c r="V22" s="124"/>
+      <c r="V22" s="120"/>
       <c r="X22" s="44"/>
     </row>
     <row r="23" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="28" t="s">
         <v>95</v>
       </c>
@@ -7219,11 +7215,11 @@
       <c r="P23" s="28"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="45"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
       <c r="U23" s="28"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="45"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
       <c r="X23" s="55"/>
     </row>
     <row r="24" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7240,46 +7236,46 @@
       <c r="L24" s="53"/>
       <c r="M24" s="28"/>
       <c r="N24" s="70"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="86"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="85"/>
     </row>
     <row r="25" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="192" t="s">
+      <c r="B25" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
-      <c r="L25" s="193"/>
-      <c r="M25" s="193"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="192" t="s">
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="193"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="192" t="s">
+      <c r="Q25" s="191"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="U25" s="193"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="194"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="192"/>
     </row>
     <row r="26" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
@@ -7289,23 +7285,23 @@
         <v>100</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="112" t="s">
+      <c r="J26" s="110" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="70"/>
-      <c r="P26" s="113" t="s">
+      <c r="P26" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="113" t="s">
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="U26" s="181"/>
-      <c r="V26" s="181"/>
-      <c r="W26" s="181"/>
-      <c r="X26" s="182"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="179"/>
+      <c r="X26" s="180"/>
     </row>
     <row r="27" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
@@ -7313,23 +7309,23 @@
       <c r="D27" s="32">
         <v>1</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="125" t="s">
+      <c r="E27" s="118"/>
+      <c r="F27" s="121" t="s">
         <v>112</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="114"/>
+      <c r="J27" s="112"/>
       <c r="K27" s="56"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
       <c r="P27" s="70"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="182"/>
+      <c r="U27" s="179"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="180"/>
     </row>
     <row r="28" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27"/>
@@ -7337,32 +7333,32 @@
       <c r="D28" s="32">
         <v>2</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="125" t="s">
+      <c r="E28" s="118"/>
+      <c r="F28" s="121" t="s">
         <v>113</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="115"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="56"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="116" t="s">
+      <c r="P28" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="116" t="s">
+      <c r="Q28" s="124"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="U28" s="181"/>
-      <c r="V28" s="181"/>
-      <c r="W28" s="181"/>
-      <c r="X28" s="182"/>
+      <c r="U28" s="179"/>
+      <c r="V28" s="179"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="180"/>
     </row>
     <row r="29" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
@@ -7370,32 +7366,32 @@
       <c r="D29" s="32">
         <v>3</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="125" t="s">
+      <c r="E29" s="118"/>
+      <c r="F29" s="121" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="115"/>
+      <c r="J29" s="113"/>
       <c r="K29" s="56"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="116" t="s">
+      <c r="P29" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="116" t="s">
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="U29" s="181"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
-      <c r="X29" s="182"/>
+      <c r="U29" s="179"/>
+      <c r="V29" s="179"/>
+      <c r="W29" s="179"/>
+      <c r="X29" s="180"/>
     </row>
     <row r="30" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
@@ -7405,33 +7401,33 @@
       <c r="F30" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="122"/>
+      <c r="G30" s="118"/>
       <c r="H30" s="39" t="s">
         <v>116</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="115"/>
+      <c r="J30" s="113"/>
       <c r="K30" s="56"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="116" t="s">
+      <c r="P30" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="Q30" s="202" t="s">
+      <c r="Q30" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="116" t="s">
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="V30" s="202" t="s">
+      <c r="V30" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="W30" s="202"/>
-      <c r="X30" s="203"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="205"/>
     </row>
     <row r="31" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
@@ -7439,30 +7435,30 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="122"/>
+      <c r="G31" s="118"/>
       <c r="H31" s="39" t="s">
         <v>117</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="115"/>
+      <c r="J31" s="113"/>
       <c r="K31" s="56"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="116" t="s">
+      <c r="P31" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="116" t="s">
+      <c r="Q31" s="124"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="182"/>
+      <c r="U31" s="179"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="180"/>
     </row>
     <row r="32" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="59"/>
@@ -7470,287 +7466,307 @@
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="122"/>
+      <c r="G32" s="118"/>
       <c r="H32" s="39" t="s">
         <v>118</v>
       </c>
       <c r="I32" s="60"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="85"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="60"/>
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
       <c r="O32" s="61"/>
-      <c r="P32" s="118" t="s">
+      <c r="P32" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="Q32" s="204" t="s">
+      <c r="Q32" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="R32" s="205"/>
-      <c r="S32" s="204" t="s">
+      <c r="R32" s="194"/>
+      <c r="S32" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="207"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
+      <c r="V32" s="195"/>
+      <c r="W32" s="195"/>
+      <c r="X32" s="196"/>
     </row>
     <row r="33" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="193"/>
-      <c r="O33" s="194"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="195"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="196"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="202"/>
     </row>
     <row r="34" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="208"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="209"/>
-      <c r="O34" s="210"/>
-      <c r="P34" s="199"/>
-      <c r="Q34" s="197"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="208"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="200"/>
       <c r="R34" s="201"/>
-      <c r="S34" s="197"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="198"/>
+      <c r="S34" s="200"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="203"/>
     </row>
     <row r="35" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="208"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="209"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="209"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="195"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="195"/>
-      <c r="T35" s="132"/>
-      <c r="U35" s="132"/>
-      <c r="V35" s="132"/>
-      <c r="W35" s="132"/>
-      <c r="X35" s="196"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="207"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="199"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="202"/>
     </row>
     <row r="36" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="208"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="209"/>
-      <c r="O36" s="210"/>
-      <c r="P36" s="199"/>
-      <c r="Q36" s="197"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="208"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="200"/>
       <c r="R36" s="201"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="198"/>
+      <c r="S36" s="200"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="203"/>
     </row>
     <row r="37" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="208"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
-      <c r="O37" s="210"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="195"/>
-      <c r="R37" s="200"/>
-      <c r="S37" s="195"/>
-      <c r="T37" s="132"/>
-      <c r="U37" s="132"/>
-      <c r="V37" s="132"/>
-      <c r="W37" s="132"/>
-      <c r="X37" s="196"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="208"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="198"/>
+      <c r="R37" s="199"/>
+      <c r="S37" s="198"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="129"/>
+      <c r="V37" s="129"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="202"/>
     </row>
     <row r="38" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="208"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="209"/>
-      <c r="O38" s="210"/>
-      <c r="P38" s="199"/>
-      <c r="Q38" s="197"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="208"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="200"/>
       <c r="R38" s="201"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
-      <c r="W38" s="130"/>
-      <c r="X38" s="198"/>
+      <c r="S38" s="200"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="203"/>
     </row>
     <row r="39" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="208"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
-      <c r="N39" s="209"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="199"/>
-      <c r="Q39" s="195"/>
-      <c r="R39" s="200"/>
-      <c r="S39" s="195"/>
-      <c r="T39" s="132"/>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="132"/>
-      <c r="X39" s="196"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="208"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="198"/>
+      <c r="R39" s="199"/>
+      <c r="S39" s="198"/>
+      <c r="T39" s="129"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="129"/>
+      <c r="W39" s="129"/>
+      <c r="X39" s="202"/>
     </row>
     <row r="40" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="208"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="209"/>
-      <c r="N40" s="209"/>
-      <c r="O40" s="210"/>
-      <c r="P40" s="199"/>
-      <c r="Q40" s="197"/>
+      <c r="B40" s="206"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="208"/>
+      <c r="P40" s="197"/>
+      <c r="Q40" s="200"/>
       <c r="R40" s="201"/>
-      <c r="S40" s="197"/>
-      <c r="T40" s="130"/>
-      <c r="U40" s="130"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="198"/>
+      <c r="S40" s="200"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="127"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="127"/>
+      <c r="X40" s="203"/>
     </row>
     <row r="41" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="208"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="209"/>
-      <c r="M41" s="209"/>
-      <c r="N41" s="209"/>
-      <c r="O41" s="210"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="195"/>
-      <c r="R41" s="200"/>
-      <c r="S41" s="195"/>
-      <c r="T41" s="132"/>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="196"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="207"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="208"/>
+      <c r="P41" s="197"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="199"/>
+      <c r="S41" s="198"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
+      <c r="X41" s="202"/>
     </row>
     <row r="42" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="211"/>
-      <c r="C42" s="212"/>
-      <c r="D42" s="212"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="214"/>
-      <c r="Q42" s="215"/>
-      <c r="R42" s="216"/>
-      <c r="S42" s="215"/>
-      <c r="T42" s="217"/>
-      <c r="U42" s="217"/>
-      <c r="V42" s="217"/>
-      <c r="W42" s="217"/>
-      <c r="X42" s="218"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="210"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="210"/>
+      <c r="N42" s="210"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="212"/>
+      <c r="Q42" s="213"/>
+      <c r="R42" s="214"/>
+      <c r="S42" s="213"/>
+      <c r="T42" s="215"/>
+      <c r="U42" s="215"/>
+      <c r="V42" s="215"/>
+      <c r="W42" s="215"/>
+      <c r="X42" s="216"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="56">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="S39:X40"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S33:X34"/>
     <mergeCell ref="B34:O42"/>
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:R36"/>
@@ -7761,29 +7777,13 @@
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="Q37:R38"/>
     <mergeCell ref="S37:X38"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="S39:X40"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="S33:X34"/>
+    <mergeCell ref="V15:W15"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="U29:X29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="U27:X27"/>
     <mergeCell ref="B10:T10"/>
     <mergeCell ref="W10:X11"/>
     <mergeCell ref="C11:F11"/>
@@ -7792,6 +7792,12 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="V13:W14"/>
     <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U27:X27"/>
     <mergeCell ref="B25:O25"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="T25:X25"/>
@@ -7805,21 +7811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -8016,7 +8007,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE32B7D-BA61-4B9B-A09C-55AF668ACE32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F72D6E-F1E6-451F-B825-0462D5FF5E34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8033,29 +8058,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B10ADB-851A-4196-82E8-5B1678715D77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE32B7D-BA61-4B9B-A09C-55AF668ACE32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>